--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -8,14 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
-    <sheet name="ユーザマスタ" sheetId="1" r:id="rId2"/>
+    <sheet name="企業マスタ" sheetId="8" r:id="rId2"/>
+    <sheet name="ユーザマスタ" sheetId="1" r:id="rId3"/>
+    <sheet name="社員マスタ" sheetId="11" r:id="rId4"/>
+    <sheet name="パスワードマスタ" sheetId="9" r:id="rId5"/>
+    <sheet name="評価期間データ" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="100">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -116,22 +120,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハッシュ値</t>
-    <rPh sb="4" eb="5">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーのマスタ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -150,36 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>区分</t>
-    <rPh sb="0" eb="2">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1：親、2：子</t>
-    <rPh sb="2" eb="3">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子供ユーザーのハッシュ値を設定する</t>
-    <rPh sb="0" eb="2">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家族同士の関連を登録する</t>
     <rPh sb="0" eb="2">
       <t>カゾク</t>
@@ -222,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hash_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,19 +188,424 @@
     <t>-</t>
   </si>
   <si>
-    <t>TYNYINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>family_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>division</t>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録者ID</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者ID</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_date_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_date_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを管理する</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業情報を管理する</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ID</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_nane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業名</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザを識別する個人アドレス</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人メールアドレス</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>personal_mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE_USER：一般、ROLE_ADMIN：管理者</t>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名(英語)</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MALE：男性、FEMALE：女性</t>
+    <rPh sb="5" eb="7">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓(英語)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_name_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first_name_en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓(日本語)</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名(日本語)</t>
+    <rPh sb="0" eb="1">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_name_jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first_name_jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価期間データ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価期間を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価期間ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trn_evaluation_period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluation_period_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの所属を管理する</t>
+    <rPh sb="5" eb="7">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職名</t>
+    <rPh sb="0" eb="3">
+      <t>ヤクショクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部名</t>
+    <rPh sb="0" eb="1">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科名</t>
+    <rPh sb="0" eb="2">
+      <t>カメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点名</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>family_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員コード</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員メールアドレス</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_mail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -345,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -360,6 +720,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -720,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -728,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -740,17 +1104,17 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -790,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -811,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -821,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -833,7 +1197,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -842,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -858,22 +1222,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.21875" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -881,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -889,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -901,17 +1262,10 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -951,28 +1305,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -982,134 +1334,1596 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A10:A14" si="0">ROW()-7</f>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>256</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <v>256</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>ROW()-7</f>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" ref="A16:A20" si="0">ROW()-7</f>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
         <v>256</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>256</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:J5"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>ROW()-7</f>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f>ROW()-7</f>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>256</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" ref="A17:A21" si="0">ROW()-7</f>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>256</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1">
+        <v>256</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" ref="A10:A13" si="0">ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>256</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>256</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1">
+        <v>256</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f>ROW()-7</f>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" ref="A16:A20" si="0">ROW()-7</f>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>256</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>256</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="世帯マスタ" sheetId="7" r:id="rId1"/>
-    <sheet name="企業マスタ" sheetId="8" r:id="rId2"/>
-    <sheet name="ユーザマスタ" sheetId="1" r:id="rId3"/>
-    <sheet name="社員マスタ" sheetId="11" r:id="rId4"/>
-    <sheet name="パスワードマスタ" sheetId="9" r:id="rId5"/>
-    <sheet name="評価期間データ" sheetId="10" r:id="rId6"/>
+    <sheet name="企業マスタ" sheetId="8" r:id="rId1"/>
+    <sheet name="ユーザマスタ" sheetId="1" r:id="rId2"/>
+    <sheet name="社員マスタ" sheetId="11" r:id="rId3"/>
+    <sheet name="パスワードマスタ" sheetId="9" r:id="rId4"/>
+    <sheet name="評価期間データ" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="91">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -63,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ型</t>
     <rPh sb="3" eb="4">
       <t>ガタ</t>
@@ -132,60 +127,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家族同士の関連を登録する</t>
-    <rPh sb="0" eb="2">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>世帯マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>セタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_family</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>世帯ID</t>
-    <rPh sb="0" eb="2">
-      <t>セタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>family_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>登録日時</t>
@@ -705,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -724,9 +667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1059,172 +999,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:J9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f>ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:J5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1242,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1250,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1263,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1278,25 +1055,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1305,26 +1082,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1334,13 +1111,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
@@ -1355,21 +1132,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
@@ -1380,13 +1157,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>256</v>
@@ -1403,13 +1180,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="8"/>
@@ -1424,13 +1201,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>256</v>
@@ -1447,13 +1224,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="8"/>
@@ -1468,16 +1245,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1495,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1503,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1516,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1531,69 +1306,69 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A15" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
@@ -1601,24 +1376,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
         <v>50</v>
@@ -1626,24 +1401,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -1651,24 +1426,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -1676,24 +1451,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
         <v>10</v>
@@ -1701,26 +1476,26 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>256</v>
@@ -1728,26 +1503,26 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>30</v>
@@ -1755,51 +1530,51 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" ref="A16:A20" si="0">ROW()-7</f>
+        <f t="shared" ref="A16:A20" si="1">ROW()-7</f>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>256</v>
@@ -1812,17 +1587,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="8"/>
@@ -1833,17 +1608,17 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1">
         <v>256</v>
@@ -1856,17 +1631,17 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="8"/>
@@ -1882,11 +1657,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1904,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1912,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1925,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1940,67 +1715,67 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A16" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
@@ -2008,47 +1783,47 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -2056,24 +1831,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -2081,24 +1856,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -2106,24 +1881,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5">
         <v>30</v>
@@ -2131,24 +1906,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>50</v>
@@ -2156,24 +1931,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1">
         <v>256</v>
@@ -2181,47 +1956,47 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:A21" si="0">ROW()-7</f>
+        <f t="shared" ref="A17:A21" si="1">ROW()-7</f>
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1">
         <v>256</v>
@@ -2234,17 +2009,17 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="8"/>
@@ -2255,17 +2030,17 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1">
         <v>256</v>
@@ -2278,17 +2053,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="8"/>
@@ -2303,13 +2078,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2327,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2335,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2348,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2363,25 +2136,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2390,26 +2163,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2419,13 +2192,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -2433,7 +2206,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
@@ -2444,13 +2217,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>256</v>
@@ -2467,13 +2240,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="8"/>
@@ -2488,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
         <v>256</v>
@@ -2511,13 +2284,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="8"/>
@@ -2532,13 +2305,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2556,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2564,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2577,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2592,67 +2363,67 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A15" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
         <v>50</v>
@@ -2660,22 +2431,22 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
         <v>50</v>
@@ -2683,22 +2454,22 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -2706,22 +2477,22 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -2729,22 +2500,22 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
         <v>10</v>
@@ -2752,24 +2523,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>256</v>
@@ -2777,24 +2548,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
         <v>30</v>
@@ -2802,51 +2573,51 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f t="shared" ref="A16:A20" si="0">ROW()-7</f>
+        <f t="shared" ref="A16:A20" si="1">ROW()-7</f>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>256</v>
@@ -2859,17 +2630,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="8"/>
@@ -2880,17 +2651,17 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1">
         <v>256</v>
@@ -2903,17 +2674,17 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="8"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="250">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -361,20 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>姓(日本語)</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名(日本語)</t>
-    <rPh sb="0" eb="1">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>last_name_jp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1693,6 +1679,55 @@
   </si>
   <si>
     <t>choice_wording_unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名</t>
+    <rPh sb="0" eb="1">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問カテゴリ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_category</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1731,7 +1766,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1759,6 +1794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,7 +1877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1893,6 +1934,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2243,7 +2292,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -2253,10 +2302,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -2271,43 +2320,43 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
@@ -2334,25 +2383,25 @@
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="H25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.2">
@@ -2388,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2396,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2409,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2451,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -2478,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -2490,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
@@ -2505,10 +2554,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -2533,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -2558,7 +2607,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2581,10 +2630,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="8"/>
@@ -2602,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2625,10 +2674,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="8"/>
@@ -2639,12 +2688,12 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2686,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2699,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2741,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -2770,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -2795,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2820,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="8"/>
@@ -2843,13 +2892,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="8"/>
@@ -2869,7 +2918,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -2894,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2917,10 +2966,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="8"/>
@@ -2938,7 +2987,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2961,10 +3010,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="8"/>
@@ -3003,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3011,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3024,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -3066,10 +3115,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3095,10 +3144,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -3120,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -3145,10 +3194,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -3170,10 +3219,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -3195,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -3220,10 +3269,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -3248,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -3273,7 +3322,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -3296,10 +3345,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="8"/>
@@ -3317,7 +3366,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -3340,10 +3389,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="8"/>
@@ -3382,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3390,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3403,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -3445,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3474,10 +3523,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -3499,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -3524,10 +3573,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -3549,10 +3598,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -3574,10 +3623,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
@@ -3597,10 +3646,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -3620,10 +3669,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -3643,13 +3692,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
@@ -3669,7 +3718,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
@@ -3694,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -3717,10 +3766,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="8"/>
@@ -3738,7 +3787,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -3761,10 +3810,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="8"/>
@@ -3784,7 +3833,7 @@
   <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3811,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3909,7 +3958,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
@@ -3923,22 +3972,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -3950,13 +3999,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="12">
-        <v>256</v>
+        <v>240</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -3973,13 +4022,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -3996,13 +4045,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12">
-        <v>256</v>
+        <v>241</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4019,13 +4068,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4035,22 +4084,22 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
@@ -4058,37 +4107,37 @@
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4106,7 +4155,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4125,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4133,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4146,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -4188,16 +4237,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>14</v>
@@ -4226,10 +4275,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
@@ -4244,10 +4293,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -4269,10 +4318,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -4294,10 +4343,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -4319,10 +4368,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -4347,13 +4396,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4372,7 +4421,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -4395,13 +4444,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -4418,7 +4467,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -4441,13 +4490,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -4466,10 +4515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4488,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4496,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4547,7 +4596,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4574,32 +4623,30 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -4607,10 +4654,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -4618,18 +4665,13 @@
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -4637,24 +4679,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -4662,13 +4709,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -4676,35 +4723,35 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="5">
         <v>50</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
@@ -4712,15 +4759,15 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>50</v>
       </c>
       <c r="F14" s="16"/>
@@ -4737,52 +4784,50 @@
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="15">
-        <v>10</v>
+      <c r="E15" s="14">
+        <v>50</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15">
+        <v>10</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14" t="s">
+      <c r="I16" s="16"/>
+      <c r="J16" s="14" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="13">
-        <v>256</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4790,98 +4835,102 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
+      <c r="B17" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5">
-        <v>30</v>
+      <c r="E17" s="13">
+        <v>255</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="14" t="s">
+    <row r="19" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f t="shared" ref="A19:A23" si="1">ROW()-7</f>
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A20:A24" si="1">ROW()-7</f>
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1">
-        <v>256</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
     </row>
@@ -4891,15 +4940,17 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="1">
+        <v>256</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4912,17 +4963,15 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1">
-        <v>256</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -4935,44 +4984,67 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E23" s="1">
+        <v>256</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D31" s="11" t="s">
-        <v>172</v>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D32" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4987,7 +5059,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5027,7 +5099,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -5096,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>38</v>
@@ -5108,7 +5180,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
@@ -5132,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="13">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -5151,7 +5223,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -5174,10 +5246,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="8"/>
@@ -5195,7 +5267,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -5218,10 +5290,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="8"/>
@@ -5244,7 +5316,7 @@
   <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5263,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5271,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5284,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="27"/>
     </row>
@@ -5326,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -5380,13 +5452,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -5405,10 +5477,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -5430,13 +5502,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -5448,7 +5520,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -5457,13 +5529,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>15</v>
@@ -5475,7 +5547,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -5484,13 +5556,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -5502,7 +5574,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -5511,13 +5583,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
@@ -5529,7 +5601,7 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -5538,13 +5610,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
@@ -5556,7 +5628,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -5565,13 +5637,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>15</v>
@@ -5583,7 +5655,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -5592,13 +5664,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>15</v>
@@ -5610,7 +5682,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -5619,13 +5691,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>15</v>
@@ -5637,7 +5709,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -5646,13 +5718,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>15</v>
@@ -5664,7 +5736,7 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -5673,13 +5745,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>15</v>
@@ -5691,7 +5763,7 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -5700,13 +5772,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>15</v>
@@ -5718,7 +5790,7 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -5727,13 +5799,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>15</v>
@@ -5745,7 +5817,7 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -5757,7 +5829,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>28</v>
@@ -5782,7 +5854,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -5805,10 +5877,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="8"/>
@@ -5826,7 +5898,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -5849,10 +5921,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="8"/>
@@ -5875,7 +5947,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5894,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5902,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5915,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="27"/>
     </row>
@@ -5957,10 +6029,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -6011,13 +6083,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -6029,7 +6101,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -6038,10 +6110,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -6056,7 +6128,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -6065,10 +6137,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -6090,10 +6162,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -6118,7 +6190,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -6143,7 +6215,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -6166,10 +6238,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="8"/>
@@ -6187,7 +6259,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -6210,10 +6282,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="8"/>
@@ -6250,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6258,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6271,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6313,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -6342,7 +6414,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>38</v>
@@ -6354,7 +6426,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
@@ -6369,10 +6441,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>16</v>
@@ -6398,10 +6470,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -6423,10 +6495,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>16</v>
@@ -6448,10 +6520,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>13</v>
@@ -6474,7 +6546,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -6499,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -6522,10 +6594,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="8"/>
@@ -6543,7 +6615,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -6566,10 +6638,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="8"/>
@@ -6580,12 +6652,12 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6596,9 +6668,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6616,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -6624,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6637,7 +6711,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6675,14 +6749,14 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A21" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -6708,7 +6782,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -6720,7 +6794,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
@@ -6735,10 +6809,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>16</v>
@@ -6760,16 +6834,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="E11" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -6785,21 +6859,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -6810,10 +6884,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -6835,10 +6909,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -6860,10 +6934,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -6885,10 +6959,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -6910,10 +6984,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -6929,30 +7003,30 @@
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24" t="s">
+      <c r="B18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
         <v>20</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="22"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
@@ -6960,10 +7034,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>134</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>28</v>
@@ -6979,69 +7053,73 @@
       <c r="I19" s="24"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:A24" si="1">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1">
-        <v>256</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A22:A25" si="1">ROW()-7</f>
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E22" s="1">
+        <v>256</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -7054,17 +7132,15 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1">
-        <v>256</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -7077,31 +7153,54 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E24" s="1">
+        <v>256</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,29 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
     <sheet name="企業マスタ" sheetId="8" r:id="rId2"/>
-    <sheet name="従業員マスタ" sheetId="11" r:id="rId3"/>
-    <sheet name="ユーザマスタ" sheetId="1" r:id="rId4"/>
-    <sheet name="パスワードマスタ" sheetId="9" r:id="rId5"/>
-    <sheet name="評価方式マスタ" sheetId="19" r:id="rId6"/>
-    <sheet name="メールマスタ" sheetId="20" r:id="rId7"/>
-    <sheet name="質問グループマスタ" sheetId="13" r:id="rId8"/>
-    <sheet name="質問データ" sheetId="15" r:id="rId9"/>
-    <sheet name="評価者データ" sheetId="14" r:id="rId10"/>
-    <sheet name="評価期間データ" sheetId="10" r:id="rId11"/>
+    <sheet name="従業員マスタ" sheetId="1" r:id="rId3"/>
+    <sheet name="パスワードマスタ" sheetId="9" r:id="rId4"/>
+    <sheet name="評価方式マスタ" sheetId="19" r:id="rId5"/>
+    <sheet name="メールマスタ" sheetId="20" r:id="rId6"/>
+    <sheet name="質問グループマスタ" sheetId="13" r:id="rId7"/>
+    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId8"/>
+    <sheet name="質問マスタ" sheetId="15" r:id="rId9"/>
+    <sheet name="評価者(社内)マスタ" sheetId="14" r:id="rId10"/>
+    <sheet name="評価者(社外)マスタ" sheetId="22" r:id="rId11"/>
     <sheet name="評価データ" sheetId="16" r:id="rId12"/>
-    <sheet name="評価データサマリ" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="257">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -96,10 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -131,10 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,20 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録者ID</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新者ID</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新日時</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -173,17 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gendar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -253,10 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>company_nane</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -267,16 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザを識別する個人アドレス</t>
-    <rPh sb="4" eb="6">
-      <t>シキベツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -285,22 +237,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>個人メールアドレス</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>personal_mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_password</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -329,46 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名(英語)</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MALE：男性、FEMALE：女性</t>
-    <rPh sb="5" eb="7">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>姓(英語)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>last_name_en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>first_name_en</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>last_name_jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>first_name_jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価期間データ</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -379,19 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評価期間を設定する</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価期間ID</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -402,75 +286,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>trn_evaluation_period</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>evaluation_period_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーの所属を管理する</t>
-    <rPh sb="5" eb="7">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職名</t>
-    <rPh sb="0" eb="3">
-      <t>ヤクショクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部名</t>
-    <rPh sb="0" eb="1">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>科名</t>
-    <rPh sb="0" eb="2">
-      <t>カメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拠点名</t>
-    <rPh sb="0" eb="2">
-      <t>キョテン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>base_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>department_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>family_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -507,72 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>created_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updated_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updated_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:削除状態</t>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属企業ID</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※評価に性別の属性は必要か？　要検討とする。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員コード</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
@@ -580,16 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属企業ID</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員コード</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
@@ -604,32 +344,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_employees</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職、上長、一般、パート、アルバイトなど</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウチョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッパン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -648,17 +367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属長ID</t>
-    <rPh sb="0" eb="3">
-      <t>ショゾクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>manager_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価者データ</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -697,43 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サブグループID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub_group_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問グループ名</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>group_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブグループ名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub_group_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>trn_evaluators</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価者と被評価者の関係を管理する</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -841,10 +512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_question_groups</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価を行う質問データを管理する</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -871,10 +538,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>trn_questions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -893,115 +556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最低評価値</t>
-    <rPh sb="0" eb="2">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最高評価値</t>
-    <rPh sb="0" eb="2">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>highest_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lowest_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※最低評価値～最高評価値　：　３段階評価、５段階評価、はい／いいえ　の評価階層に対応する</t>
-    <rPh sb="1" eb="3">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザマスタより抽出する。</t>
-    <rPh sb="8" eb="10">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社内、所属グループ内、または社外からの評価者を設定可能とする。</t>
-    <rPh sb="0" eb="2">
-      <t>シャナイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャガイ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヒョウカシャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>trn_evaluations</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1024,50 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計評価値</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均評価値</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>total_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>average_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価データの集計</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取得評価値</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
@@ -1085,71 +595,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>trn_evaluations_summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価データサマリID</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evaluation_summary_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期間名</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>period_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始日</t>
-    <rPh sb="0" eb="3">
-      <t>カイシビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了日</t>
-    <rPh sb="0" eb="3">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>start_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業名かな</t>
-    <rPh sb="0" eb="2">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
@@ -1214,26 +659,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者姓</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者名</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者メールアドレス</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -1241,38 +666,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_companies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署２</t>
-  </si>
-  <si>
-    <t>部署３</t>
-  </si>
-  <si>
-    <t>←社員番号</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価方式マスタ</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -1324,24 +717,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年度開始月</t>
-    <rPh sb="0" eb="2">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SMALLINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>start_month</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1585,20 +961,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称1</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称2</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択肢文言1</t>
     <rPh sb="0" eb="3">
       <t>センタクシ</t>
@@ -1682,14 +1044,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>姓</t>
     <rPh sb="0" eb="1">
       <t>セイ</t>
@@ -1704,14 +1058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1728,6 +1074,552 @@
   </si>
   <si>
     <t>question_category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録者</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業名かな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_nane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_in_charge1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_in_charge2</t>
+  </si>
+  <si>
+    <t>department_in_charge3</t>
+  </si>
+  <si>
+    <t>担当者かな</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：有効、1:削除状態</t>
+    <rPh sb="2" eb="4">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員ID</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>企業ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業コード</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>companycode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>UniqueIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UniqueIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UniqueIndex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge_e-mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_e-mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署1</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署2</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署3</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department2</t>
+  </si>
+  <si>
+    <t>employee_department3</t>
+  </si>
+  <si>
+    <t>ランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードマスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>mst_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：ランク上位者にのみ公開、2：すべての社員に公開</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_name1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_name2</t>
+  </si>
+  <si>
+    <t>質問グループ名称1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問グループ名称2</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_question_group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_question_group_sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問グループサブマスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問グループサブID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_sub_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重み</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～10までの数値</t>
+    <rPh sb="7" eb="9">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ID：0番は質問のひな形</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_questions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者(社内)マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者マスタID</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_evaluators_inside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_evaluators_inside_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価期間(開始)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluation_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluation_end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>年月のみ(YYYY/MM/+01)を管理</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価期間(終了)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者(社外)マスタ</t>
+    <rPh sb="4" eb="6">
+      <t>シャガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_evaluators_outside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被評価者との関係</t>
+    <rPh sb="6" eb="8">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>relationship_with_evaluated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11：上長、12：同僚、13：部下、14：先輩、15：後輩、16：別部署
+21：顧客、22：仕入先(供給元)、23：協力会社同士</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センパイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウハイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キョウキュウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_first_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_login_account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>update_user</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>evaluator_first_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_department1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_department2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_department3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_e-mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価年月</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluation_month</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1735,7 +1627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1765,8 +1657,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1787,19 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1899,19 +1794,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1920,28 +1806,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2280,7 +2179,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="6.21875" customWidth="1"/>
@@ -2290,123 +2189,123 @@
     <col min="10" max="10" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="23" spans="4:11">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="K24" t="s">
         <v>17</v>
       </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="4:11">
       <c r="H25" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
       <c r="H26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
       <c r="D27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
       <c r="E28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11">
       <c r="E29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2419,50 +2318,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+    <col min="10" max="10" width="63.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2491,210 +2394,335 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f>ROW()-7</f>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" ref="A12:A15" si="0">ROW()-7</f>
+    <row r="12" spans="1:10" ht="26.4">
+      <c r="A12" s="29">
+        <f>ROW()-7</f>
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1">
-        <v>256</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A15" si="0">ROW()-7</f>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f>ROW()-7</f>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" ref="A17:A20" si="1">ROW()-7</f>
+        <v>10</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>125</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>125</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2705,54 +2733,629 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" ref="A11:A16" si="0">ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="22">
+        <v>100</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="22">
+        <v>100</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f>ROW()-7</f>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="22">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="21">
+        <v>255</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="26.4">
+      <c r="A17" s="29">
+        <f>ROW()-7</f>
+        <v>10</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f>ROW()-7</f>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f>ROW()-7</f>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" ref="A20" si="1">ROW()-7</f>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <f>ROW()-7</f>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <f t="shared" ref="A22:A25" si="2">ROW()-7</f>
+        <v>15</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <v>125</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>125</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="27"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="26"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -2772,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2781,598 +3384,279 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A12" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5">
-        <v>256</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <f t="shared" ref="A13:A17" si="1">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>256</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>256</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
+      <c r="B17" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>125</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A15" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" ref="A16:A19" si="1">ROW()-7</f>
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>256</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
+      <c r="B18" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3380,447 +3664,51 @@
       <c r="I18" s="8"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
+      <c r="B19" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>125</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A17" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" ref="A18:A21" si="1">ROW()-7</f>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <v>256</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3830,54 +3718,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>169</v>
+      <c r="B3" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -3897,7 +3787,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -3906,239 +3796,456 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
       <c r="H9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A14" si="0">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="22">
+        <v>250</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
+      <c r="B11" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="22">
+        <v>250</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="22">
+        <v>20</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>23</v>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="22">
+        <v>125</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="22">
+        <v>20</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="11" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="11" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="22">
+        <v>100</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="22">
+        <v>100</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="11" t="s">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="22">
+        <v>100</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="11" t="s">
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="22">
+        <v>100</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="11" t="s">
-        <v>168</v>
-      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="22">
+        <v>50</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="22">
+        <v>255</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <f t="shared" ref="A21:A25" si="1">ROW()-7</f>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <v>125</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>125</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4150,56 +4257,58 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -4228,128 +4337,135 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A13" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" s="23" customFormat="1">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="11">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
+      <c r="B10" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
       <c r="H10" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
       <c r="H11" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
+      <c r="B12" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -4357,77 +4473,77 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
+      <c r="B13" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <f t="shared" ref="A14:A18" si="1">ROW()-7</f>
+        <f>ROW()-7</f>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="22">
+        <v>100</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-7</f>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="22">
+        <v>100</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -4435,22 +4551,22 @@
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-7</f>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="22">
+        <v>50</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -4458,498 +4574,124 @@
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
+      <c r="B17" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5">
-        <v>256</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:K35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="5">
-        <v>50</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="15">
-        <v>50</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14">
-        <v>50</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15">
-        <v>10</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13">
-        <v>255</v>
+        <v>195</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
+      <c r="B18" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="21">
+        <v>255</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>30</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <f t="shared" ref="A20:A24" si="1">ROW()-7</f>
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
+      <c r="B21" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>125</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -4957,43 +4699,45 @@
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
+      <c r="B22" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
+      <c r="B23" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>125</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5001,51 +4745,28 @@
       <c r="I23" s="8"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
+      <c r="B24" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="11" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5054,56 +4775,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5132,104 +4854,104 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f>ROW()-7</f>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21">
         <v>250</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A14" si="0">ROW()-7</f>
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
+      <c r="B11" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>125</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -5237,43 +4959,45 @@
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
+      <c r="B12" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+      <c r="B13" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>125</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -5281,21 +5005,23 @@
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
+      <c r="B14" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5308,59 +5034,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -5380,7 +5104,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5389,478 +5113,480 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A28" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A27" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f>ROW()-7</f>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
       <c r="H9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
+      <c r="B24" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>125</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
+      <c r="B25" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -5868,43 +5594,45 @@
       <c r="I25" s="8"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
+      <c r="B26" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>125</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
+      <c r="B27" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -5912,26 +5640,373 @@
       <c r="I27" s="8"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>500</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>125</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>125</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5941,57 +6016,55 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -6011,7 +6084,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6020,208 +6093,200 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A16" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <f>ROW()-7</f>
+    <row r="9" spans="1:10" s="16" customFormat="1">
+      <c r="A9" s="13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>221</v>
+        <v>209</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>256</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>256</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>220</v>
+      <c r="B13" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+      <c r="B14" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+      <c r="B15" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>256</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>125</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6229,70 +6294,28 @@
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
+      <c r="B16" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>256</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6302,52 +6325,55 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -6367,7 +6393,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6376,208 +6402,202 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A14" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A17" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:10" s="16" customFormat="1">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
+      <c r="B11" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1">
-        <v>256</v>
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+    <row r="12" spans="1:10" s="16" customFormat="1">
+      <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="B12" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="22">
-        <v>256</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+      <c r="B14" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>125</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <f t="shared" ref="A15:A18" si="1">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+      <c r="B15" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6585,80 +6605,51 @@
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
+      <c r="B16" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>125</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
+      <c r="B17" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6668,54 +6659,55 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -6735,7 +6727,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6744,153 +6736,153 @@
         <v>9</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A21" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F9" s="15"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="J9" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
@@ -6898,24 +6890,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -6923,24 +6915,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5">
         <v>20</v>
@@ -6948,24 +6940,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5">
         <v>20</v>
@@ -6973,24 +6965,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -6998,127 +6990,121 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="5">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>125</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
+      <c r="B21" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>125</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <f t="shared" ref="A22:A25" si="1">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
+      <c r="B22" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1">
-        <v>256</v>
+        <v>231</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -7126,82 +7112,6 @@
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1">
-        <v>256</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="271">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -276,20 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評価期間ID</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evaluation_period_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問データ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -528,16 +514,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>question_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,23 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>取得評価値</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>score_point</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
@@ -1095,40 +1054,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>company_nane</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>postal_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_kana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>phone_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_in_charge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>department_in_charge1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>department_in_charge2</t>
-  </si>
-  <si>
-    <t>department_in_charge3</t>
-  </si>
-  <si>
     <t>担当者かな</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -1136,23 +1061,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>person_in_charge_kana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0：有効、1:削除状態</t>
-    <rPh sb="2" eb="4">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員ID</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
@@ -1182,10 +1090,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>companycode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
   </si>
   <si>
@@ -1210,10 +1114,6 @@
   </si>
   <si>
     <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_in_charge_e-mail_address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1271,14 +1171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_company</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードマスタID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1415,18 +1307,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評価者マスタID</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウカシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mst_evaluators_inside</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_evaluators_inside_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1553,10 +1434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>evaluator_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>evaluator_last_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1620,6 +1497,210 @@
   </si>
   <si>
     <t>evaluation_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluators_inside_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者区分</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：社内、2：社外</t>
+    <rPh sb="2" eb="4">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluators_inside_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluated_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重み付き点数</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weighted_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示時の並び順を表す</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問マスタの主キー</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：有効、1:削除</t>
+    <rPh sb="2" eb="4">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_nane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_phone_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_in_charge1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_in_charge2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_in_charge3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge_email_address</t>
+  </si>
+  <si>
+    <t>company_postal_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_deleted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2191,7 +2272,7 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -2201,10 +2282,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2219,28 +2300,28 @@
     </row>
     <row r="8" spans="2:4">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2250,12 +2331,12 @@
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="4:11">
@@ -2282,25 +2363,25 @@
     </row>
     <row r="25" spans="4:11">
       <c r="H25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="4:11">
       <c r="H26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="4:11">
       <c r="D27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="4:11">
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="4:11">
@@ -2318,9 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2340,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2348,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2361,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2385,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2399,14 +2478,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" ref="A8:A14" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2422,17 +2501,17 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2453,14 +2532,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2478,14 +2557,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2503,17 +2582,17 @@
     </row>
     <row r="12" spans="1:10" ht="26.4">
       <c r="A12" s="29">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>14</v>
@@ -2525,22 +2604,22 @@
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="28" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -2552,22 +2631,22 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -2579,19 +2658,19 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <f t="shared" ref="A15" si="0">ROW()-7</f>
+        <f t="shared" ref="A15" si="1">ROW()-7</f>
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -2616,7 +2695,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -2634,14 +2713,14 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <f t="shared" ref="A17:A20" si="1">ROW()-7</f>
+        <f t="shared" ref="A17:A20" si="2">ROW()-7</f>
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -2657,17 +2736,17 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -2680,14 +2759,14 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -2703,17 +2782,17 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -2736,7 +2815,7 @@
   <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2757,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2765,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2778,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2802,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2820,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2839,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2849,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2874,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2899,13 +2978,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -2924,10 +3003,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -2949,10 +3028,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -2963,7 +3042,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
@@ -2974,10 +3053,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -2997,10 +3076,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -3020,10 +3099,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -3039,19 +3118,19 @@
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="26.4">
+    <row r="17" spans="1:10" ht="39.6">
       <c r="A17" s="29">
         <f>ROW()-7</f>
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>14</v>
@@ -3063,7 +3142,7 @@
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="28" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3072,13 +3151,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -3090,7 +3169,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3099,13 +3178,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -3117,7 +3196,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3126,10 +3205,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -3154,7 +3233,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -3176,10 +3255,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -3202,10 +3281,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -3222,10 +3301,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -3248,10 +3327,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -3307,11 +3386,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3330,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3338,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3350,10 +3427,10 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
@@ -3375,7 +3452,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -3389,14 +3466,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A26" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3422,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3447,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -3468,17 +3545,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -3489,9 +3566,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
@@ -3499,13 +3574,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -3516,46 +3591,50 @@
         <v>13</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="J12" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.4">
+      <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="28" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -3566,7 +3645,9 @@
         <v>13</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
@@ -3574,13 +3655,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -3588,7 +3669,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
@@ -3598,14 +3679,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
+      <c r="B16" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -3613,31 +3694,35 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>156</v>
+      <c r="B17" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>125</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
@@ -3646,21 +3731,23 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>19</v>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>50</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1"/>
     </row>
@@ -3669,21 +3756,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>157</v>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="5">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1"/>
     </row>
@@ -3692,23 +3781,167 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>20</v>
+      <c r="B20" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>125</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>125</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3721,7 +3954,7 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3750,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3787,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -3808,7 +4041,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3834,10 +4067,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -3852,9 +4085,7 @@
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -3866,18 +4097,18 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="22">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
@@ -3888,21 +4119,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="22">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
@@ -3913,10 +4144,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -3927,7 +4158,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -3938,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -3952,7 +4183,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
@@ -3963,10 +4194,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -3977,7 +4208,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
@@ -3988,10 +4219,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -4002,7 +4233,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
@@ -4013,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -4027,7 +4258,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
@@ -4038,10 +4269,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -4052,7 +4283,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
@@ -4063,10 +4294,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -4086,10 +4317,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4109,10 +4340,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -4123,7 +4354,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
@@ -4137,22 +4368,22 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4161,10 +4392,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -4187,13 +4418,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -4207,10 +4438,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -4233,13 +4464,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -4261,8 +4492,8 @@
   </sheetPr>
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4283,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4291,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4328,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -4346,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -4375,13 +4606,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="11">
         <v>25</v>
@@ -4429,13 +4660,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -4449,7 +4680,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="21" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K11" s="23"/>
     </row>
@@ -4459,13 +4690,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -4484,10 +4715,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -4509,10 +4740,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -4523,7 +4754,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
@@ -4534,10 +4765,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -4557,10 +4788,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -4580,16 +4811,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -4605,10 +4836,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -4660,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -4682,10 +4913,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -4708,13 +4939,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -4728,10 +4959,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -4754,13 +4985,13 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -4808,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4821,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -4845,7 +5076,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -4863,10 +5094,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -4890,24 +5121,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -4942,10 +5173,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -4968,13 +5199,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4988,10 +5219,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5014,13 +5245,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -5059,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5067,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5080,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -5104,7 +5335,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5122,10 +5353,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5178,13 +5409,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -5196,7 +5427,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5205,13 +5436,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5223,7 +5454,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5232,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -5250,7 +5481,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5259,13 +5490,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5277,7 +5508,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5286,13 +5517,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -5304,7 +5535,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5313,13 +5544,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -5331,7 +5562,7 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5340,13 +5571,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -5358,7 +5589,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5367,13 +5598,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -5385,7 +5616,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5394,13 +5625,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -5412,7 +5643,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5421,13 +5652,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5439,7 +5670,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5448,13 +5679,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -5466,7 +5697,7 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5475,13 +5706,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -5493,7 +5724,7 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5502,13 +5733,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -5520,7 +5751,7 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5532,7 +5763,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -5554,10 +5785,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -5580,10 +5811,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5600,10 +5831,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -5626,10 +5857,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -5672,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5680,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5693,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -5717,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5735,10 +5966,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5791,13 +6022,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>133</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -5811,7 +6042,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5820,10 +6051,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -5838,7 +6069,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5847,10 +6078,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -5872,10 +6103,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5900,7 +6131,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -5922,10 +6153,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -5948,10 +6179,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -5968,10 +6199,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -5994,10 +6225,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -6039,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6047,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6060,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6084,7 +6315,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6102,10 +6333,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6131,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
@@ -6156,10 +6387,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -6181,10 +6412,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -6209,7 +6440,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
@@ -6231,10 +6462,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -6257,10 +6488,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -6277,10 +6508,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6303,10 +6534,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6325,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6348,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6356,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6369,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6393,7 +6624,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6407,14 +6638,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A17" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6440,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
@@ -6465,10 +6696,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -6490,13 +6721,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6507,74 +6738,80 @@
         <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" s="16" customFormat="1">
-      <c r="A12" s="13">
+      <c r="J11" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="I12" s="8"/>
+      <c r="J12" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="16" customFormat="1">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>156</v>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -6588,16 +6825,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>125</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6611,16 +6848,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>125</v>
+        <v>209</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -6634,22 +6871,45 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>125</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6662,7 +6922,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6682,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6690,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6703,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6727,7 +6987,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6745,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6774,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -6792,7 +7052,7 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6801,13 +7061,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E10" s="5">
         <v>50</v>
@@ -6826,10 +7086,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -6851,10 +7111,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -6876,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -6901,10 +7161,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -6926,10 +7186,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6951,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -6976,10 +7236,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -7004,7 +7264,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -7026,10 +7286,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -7052,10 +7312,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -7072,10 +7332,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -7098,10 +7358,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
@@ -13,19 +13,20 @@
     <sheet name="パスワードマスタ" sheetId="9" r:id="rId4"/>
     <sheet name="評価方式マスタ" sheetId="19" r:id="rId5"/>
     <sheet name="メールマスタ" sheetId="20" r:id="rId6"/>
-    <sheet name="質問グループマスタ" sheetId="13" r:id="rId7"/>
-    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId8"/>
-    <sheet name="質問マスタ" sheetId="15" r:id="rId9"/>
-    <sheet name="評価者(社内)マスタ" sheetId="14" r:id="rId10"/>
-    <sheet name="評価者(社外)マスタ" sheetId="22" r:id="rId11"/>
-    <sheet name="評価データ" sheetId="16" r:id="rId12"/>
+    <sheet name="メール送信データ" sheetId="23" r:id="rId7"/>
+    <sheet name="質問グループマスタ" sheetId="13" r:id="rId8"/>
+    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId9"/>
+    <sheet name="質問マスタ" sheetId="15" r:id="rId10"/>
+    <sheet name="評価者(社内)マスタ" sheetId="14" r:id="rId11"/>
+    <sheet name="評価者(社外)マスタ" sheetId="22" r:id="rId12"/>
+    <sheet name="評価結果データ" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="287">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -118,14 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -266,16 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評価期間データ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問データ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -297,14 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスタテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>is_deleted</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -316,13 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>従業員コード</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員マスタ</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
@@ -338,28 +306,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（従業員コード）</t>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価者データ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -387,10 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>group_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価者と被評価者の関係を管理する</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -413,13 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評価者ID</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウカシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>evaluator_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -438,66 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署、一般、パート／アルバイトの別を管理</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価者：被評価者の関係を管理。ユーザマスタから抽出。</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウカシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ヒョウカシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本的な質問は、テンプレート（別途用意する？）から予め挿入するか？</t>
-    <rPh sb="0" eb="3">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アラカジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価を行う質問データを管理する</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -532,28 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>trn_evaluations</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価データサマリ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価データID</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evaluation_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
@@ -888,10 +746,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mail classification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>time_to_send_mail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1003,20 +857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>姓</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名</t>
-    <rPh sb="0" eb="1">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1109,39 +949,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインアカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_e-mail_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署1</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署2</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部署3</t>
-    <rPh sb="0" eb="2">
-      <t>ブショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_department1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1152,10 +959,6 @@
     <t>employee_department3</t>
   </si>
   <si>
-    <t>ランク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_rank</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1189,19 +992,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1：ランク上位者にのみ公開、2：すべての社員に公開</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>group_name1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>group_name2</t>
   </si>
   <si>
     <t>質問グループ名称1</t>
@@ -1224,14 +1016,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_question_group</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_question_group_sub</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問グループサブマスタ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -1246,10 +1030,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>group_sub_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問ID</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -1299,18 +1079,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_questions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価者(社内)マスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_evaluators_inside</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価期間(開始)</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -1362,10 +1130,6 @@
     <rPh sb="4" eb="6">
       <t>シャガイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_evaluators_outside</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1434,22 +1198,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>evaluator_last_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_first_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_login_account</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_last_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1479,10 +1231,6 @@
   </si>
   <si>
     <t>evaluator_department3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evaluator_e-mail_address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1496,14 +1244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>evaluation_month</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>evaluators_inside_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評価者区分</t>
     <rPh sb="0" eb="3">
       <t>ヒョウカシャ</t>
@@ -1528,10 +1268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>evaluators_inside_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>点数</t>
     <rPh sb="0" eb="2">
       <t>テンスウ</t>
@@ -1560,10 +1296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weighted_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1700,7 +1432,340 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ログインアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_login_account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員姓</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署1</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署2</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署3</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員ランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_email_address</t>
+  </si>
+  <si>
+    <t>evaluator_email_address</t>
+  </si>
+  <si>
+    <t>1：ランク上位者にのみ公開、2：すべての社員に公開</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信データ</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trn_mail_send</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信データID</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_send_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_classification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール宛先</t>
+    <rPh sb="3" eb="5">
+      <t>アテサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信結果</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_send_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信回数</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_send_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信日時</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_send_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：未送信、1：送信済、9失敗</t>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_question_group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_group_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_group_name1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_group_name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_question_group_sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_group_sub_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_group_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_serial_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>employee_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_employee_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者マスタID</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウカシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者(社内)マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者姓</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者部署1</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者部署2</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者部署3</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価者メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_evaluator_inside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価結果データ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価結果データID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trn_evaluate_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluate_result_id</t>
+  </si>
+  <si>
+    <t>evaluate_result_month</t>
+  </si>
+  <si>
+    <t>evaluator_inside_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_evaluator_outside</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evaluator_outside_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weighted_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1965,6 +2030,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13848</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>42328</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>63371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13848" y="13849"/>
+          <a:ext cx="16362989" cy="15178686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2254,140 +2362,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="FF51" sqref="FF51"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="C5" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="5">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>100</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11">
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>125</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11">
-      <c r="H25" t="s">
-        <v>158</v>
-      </c>
-      <c r="K25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11">
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11">
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11">
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11">
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
+      <c r="C20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>125</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2395,7 +2839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -2419,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2427,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2440,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2464,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2482,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2501,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2511,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2536,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2561,10 +3005,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -2586,13 +3030,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>14</v>
@@ -2604,7 +3048,7 @@
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="28" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2613,13 +3057,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -2631,7 +3075,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2640,13 +3084,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -2658,7 +3102,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2667,10 +3111,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -2692,13 +3136,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -2706,7 +3150,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
@@ -2717,10 +3161,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -2740,13 +3184,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -2763,10 +3207,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -2786,13 +3230,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -2810,13 +3254,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2836,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2844,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2857,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2881,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2899,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2918,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2928,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -2953,10 +3395,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -2978,13 +3420,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -2992,7 +3434,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
@@ -3003,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -3017,7 +3459,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -3028,10 +3470,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -3042,7 +3484,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
@@ -3053,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -3076,10 +3518,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -3099,10 +3541,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -3113,7 +3555,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
@@ -3124,13 +3566,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>14</v>
@@ -3142,7 +3584,7 @@
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="28" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3151,13 +3593,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -3169,7 +3611,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3178,13 +3620,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -3196,7 +3638,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3205,10 +3647,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -3230,13 +3672,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -3244,7 +3686,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
@@ -3255,10 +3697,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -3278,13 +3720,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -3301,10 +3743,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -3324,13 +3766,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -3384,7 +3826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
@@ -3407,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3415,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3428,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -3452,7 +3894,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -3470,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3489,7 +3931,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3499,10 +3941,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -3524,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -3549,10 +3991,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -3574,13 +4016,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -3592,22 +4034,22 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.6">
       <c r="A13" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>14</v>
@@ -3619,7 +4061,7 @@
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="28" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3628,13 +4070,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -3646,7 +4088,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3655,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -3680,13 +4122,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -3698,7 +4140,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3707,10 +4149,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
@@ -3732,10 +4174,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -3757,10 +4199,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -3782,13 +4224,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -3796,7 +4238,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
@@ -3807,21 +4249,21 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1"/>
@@ -3832,13 +4274,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -3846,7 +4288,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1"/>
@@ -3857,10 +4299,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -3880,13 +4322,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -3903,10 +4345,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -3926,13 +4368,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -3953,9 +4395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3975,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3983,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3996,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -4020,7 +4460,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -4038,16 +4478,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
@@ -4057,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -4067,10 +4507,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -4079,9 +4519,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -4094,10 +4532,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -4108,7 +4546,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
@@ -4119,10 +4557,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -4133,7 +4571,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
@@ -4144,10 +4582,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -4158,7 +4596,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -4169,10 +4607,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -4183,7 +4621,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
@@ -4194,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -4208,7 +4646,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
@@ -4219,10 +4657,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -4233,7 +4671,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
@@ -4244,10 +4682,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -4258,7 +4696,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
@@ -4269,10 +4707,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -4283,7 +4721,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
@@ -4294,10 +4732,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -4317,10 +4755,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4340,10 +4778,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -4354,7 +4792,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
@@ -4365,25 +4803,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4392,10 +4830,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -4415,16 +4853,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -4438,10 +4876,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -4461,16 +4899,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -4492,9 +4930,7 @@
   </sheetPr>
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4514,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4522,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4535,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -4559,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -4577,16 +5013,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
@@ -4596,7 +5032,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -4606,21 +5042,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E9" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
@@ -4633,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -4645,9 +5079,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4660,27 +5092,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="21" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="K11" s="23"/>
     </row>
@@ -4690,13 +5120,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -4704,7 +5134,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -4715,10 +5145,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -4729,7 +5159,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
@@ -4740,10 +5170,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -4754,7 +5184,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
@@ -4765,10 +5195,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -4788,10 +5218,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -4811,21 +5241,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
@@ -4836,10 +5266,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -4850,7 +5280,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1"/>
@@ -4861,10 +5291,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4875,11 +5305,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4888,21 +5318,21 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
@@ -4913,10 +5343,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -4936,16 +5366,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -4959,10 +5389,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -4982,16 +5412,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -5010,9 +5440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5031,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5039,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5052,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -5076,7 +5504,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5094,10 +5522,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5121,24 +5549,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -5148,10 +5576,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -5162,7 +5590,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
@@ -5173,10 +5601,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -5196,16 +5624,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -5219,10 +5647,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5242,16 +5670,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -5269,9 +5697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5290,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5298,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5311,7 +5737,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -5335,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5353,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5372,7 +5798,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -5382,10 +5808,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -5394,9 +5820,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -5409,13 +5833,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -5427,7 +5851,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5436,13 +5860,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -5454,7 +5878,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5463,13 +5887,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -5481,7 +5905,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5490,13 +5914,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -5508,7 +5932,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5517,13 +5941,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -5535,7 +5959,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5544,13 +5968,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -5562,7 +5986,7 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5571,13 +5995,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -5589,7 +6013,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5598,13 +6022,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -5616,7 +6040,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5625,13 +6049,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -5643,7 +6067,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5652,13 +6076,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -5670,7 +6094,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5679,13 +6103,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -5697,7 +6121,7 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5706,13 +6130,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -5724,7 +6148,7 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5733,13 +6157,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -5751,7 +6175,7 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5760,13 +6184,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -5774,7 +6198,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="1"/>
@@ -5785,10 +6209,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -5808,13 +6232,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -5831,10 +6255,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -5854,13 +6278,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -5882,9 +6306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5903,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5911,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5924,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -5948,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5966,10 +6388,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5985,7 +6407,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -5995,10 +6417,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -6007,9 +6429,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -6022,27 +6442,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="19" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6051,13 +6469,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -6069,7 +6487,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6078,10 +6496,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -6103,10 +6521,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -6128,10 +6546,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -6142,7 +6560,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
@@ -6153,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6176,13 +6594,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6199,10 +6617,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -6222,13 +6640,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -6247,11 +6665,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -6270,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6278,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6290,10 +6706,10 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7" t="s">
@@ -6315,7 +6731,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6329,14 +6745,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A16" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6352,34 +6768,34 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1">
-      <c r="A9" s="13">
-        <f t="shared" si="0"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -6387,16 +6803,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1">
-        <v>256</v>
+      <c r="E10" s="5">
+        <v>255</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6412,16 +6828,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
-        <v>256</v>
+      <c r="E11" s="5">
+        <v>50</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -6437,21 +6853,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>500</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
@@ -6461,44 +6877,50 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>151</v>
+      <c r="B13" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>125</v>
+        <v>248</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>19</v>
+      <c r="B14" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
@@ -6508,16 +6930,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>125</v>
+        <v>173</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6530,37 +6952,130 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>20</v>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>125</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>125</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -6579,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6587,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6600,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6624,7 +7139,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6638,14 +7153,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A16" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6661,7 +7176,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -6671,10 +7186,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>15</v>
@@ -6696,16 +7211,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -6720,41 +7235,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>245</v>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>196</v>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -6762,53 +7273,47 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="16" customFormat="1">
-      <c r="A13" s="13">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13" t="s">
-        <v>201</v>
-      </c>
+      <c r="B13" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>125</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+      <c r="B14" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -6825,10 +7330,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6848,13 +7353,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6864,52 +7369,6 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>125</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6919,17 +7378,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -6942,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6950,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6963,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -6987,7 +7445,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -7001,14 +7459,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>196</v>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -7024,36 +7482,34 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" s="16" customFormat="1">
+      <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -7061,16 +7517,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="5">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -7085,17 +7541,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
+      <c r="B11" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
+        <v>202</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -7103,57 +7559,63 @@
         <v>13</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>133</v>
+      <c r="B12" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
+      <c r="J12" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="16" customFormat="1">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
@@ -7161,22 +7623,20 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
         <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
@@ -7185,23 +7645,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>137</v>
+      <c r="B15" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="5">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="1"/>
     </row>
@@ -7210,23 +7668,21 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>138</v>
+      <c r="B16" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20</v>
+        <v>173</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
     </row>
@@ -7235,23 +7691,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>143</v>
+      <c r="B17" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="1"/>
     </row>
@@ -7260,117 +7714,23 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
+      <c r="B18" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>125</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>125</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
@@ -908,10 +908,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_employee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_id</t>
   </si>
   <si>
@@ -1649,10 +1645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>evaluator_employee_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1766,6 +1758,14 @@
   </si>
   <si>
     <t>2,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_employee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2448,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>57</v>
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2750,7 +2750,7 @@
         <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -2773,10 +2773,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -2796,7 +2796,7 @@
         <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -2819,10 +2819,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2908,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -2926,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -3005,10 +3005,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -3030,13 +3030,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="D12" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>14</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3057,13 +3057,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3084,13 +3084,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3114,7 +3114,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -3164,7 +3164,7 @@
         <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -3187,10 +3187,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -3210,7 +3210,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -3233,10 +3233,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3323,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3370,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -3420,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>127</v>
@@ -3445,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -3470,10 +3470,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -3495,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -3518,10 +3518,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -3541,10 +3541,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -3566,13 +3566,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="D17" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>14</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3593,13 +3593,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3620,13 +3620,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3650,7 +3650,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -3700,7 +3700,7 @@
         <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -3723,10 +3723,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -3746,7 +3746,7 @@
         <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -3769,10 +3769,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3894,7 +3894,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -3912,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3941,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -3969,7 +3969,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -3991,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -4016,10 +4016,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>20</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4070,13 +4070,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4100,7 +4100,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -4122,13 +4122,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4149,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>57</v>
@@ -4202,7 +4202,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4224,10 +4224,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -4249,16 +4249,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -4302,7 +4302,7 @@
         <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -4325,10 +4325,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -4348,7 +4348,7 @@
         <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -4371,10 +4371,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -4395,7 +4395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4460,7 +4460,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -4481,7 +4481,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -4507,10 +4507,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -4535,7 +4535,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -4560,7 +4560,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -4585,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -4610,7 +4610,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -4635,7 +4635,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -4660,7 +4660,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -4685,7 +4685,7 @@
         <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -4710,7 +4710,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -4735,7 +4735,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -4758,7 +4758,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4781,7 +4781,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -4806,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4833,7 +4833,7 @@
         <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -4856,10 +4856,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>45</v>
@@ -4879,7 +4879,7 @@
         <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -4902,10 +4902,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>45</v>
@@ -4930,7 +4930,9 @@
   </sheetPr>
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4958,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4995,7 +4997,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5016,7 +5018,7 @@
         <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5042,10 +5044,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>226</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>128</v>
@@ -5095,7 +5097,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>127</v>
@@ -5110,7 +5112,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K11" s="23"/>
     </row>
@@ -5120,10 +5122,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>127</v>
@@ -5145,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5170,10 +5172,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -5195,10 +5197,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -5218,10 +5220,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -5241,16 +5243,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5266,10 +5268,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -5346,7 +5348,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -5369,10 +5371,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>45</v>
@@ -5392,7 +5394,7 @@
         <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -5415,10 +5417,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>45</v>
@@ -5467,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5504,7 +5506,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5522,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5552,21 +5554,21 @@
         <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -5604,7 +5606,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -5627,10 +5629,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>45</v>
@@ -5650,7 +5652,7 @@
         <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5673,10 +5675,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>45</v>
@@ -5761,7 +5763,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -5851,7 +5853,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6212,7 +6214,7 @@
         <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -6235,10 +6237,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -6258,7 +6260,7 @@
         <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -6281,10 +6283,10 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -6370,7 +6372,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6445,7 +6447,7 @@
         <v>106</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
@@ -6574,7 +6576,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6597,10 +6599,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6620,7 +6622,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -6643,10 +6645,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -6686,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6694,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6707,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -6731,7 +6733,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -6749,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6803,10 +6805,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -6878,13 +6880,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -6896,7 +6898,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6905,13 +6907,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -6930,13 +6932,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -6981,7 +6983,7 @@
         <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -7004,10 +7006,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -7027,7 +7029,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -7050,10 +7052,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -7102,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7139,7 +7141,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -7160,7 +7162,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -7186,7 +7188,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>30</v>
@@ -7211,10 +7213,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -7236,10 +7238,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -7287,7 +7289,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -7310,10 +7312,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -7333,7 +7335,7 @@
         <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -7356,10 +7358,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7400,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7408,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7445,7 +7447,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>8</v>
@@ -7463,10 +7465,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -7492,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>30</v>
@@ -7520,7 +7522,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -7542,13 +7544,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -7560,7 +7562,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7569,7 +7571,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -7587,7 +7589,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="16" customFormat="1">
@@ -7596,16 +7598,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7614,7 +7616,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7649,7 +7651,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -7672,10 +7674,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7695,7 +7697,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -7718,10 +7720,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -945,18 +945,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_department1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>employee_department2</t>
   </si>
   <si>
     <t>employee_department3</t>
-  </si>
-  <si>
-    <t>employee_rank</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SMALLINT</t>
@@ -1198,10 +1190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_last_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_user</t>
   </si>
   <si>
@@ -1436,10 +1424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員姓</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
@@ -1766,6 +1750,22 @@
   </si>
   <si>
     <t>mst_employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>57</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2750,7 +2750,7 @@
         <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -2773,10 +2773,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -2796,7 +2796,7 @@
         <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -2819,10 +2819,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -2926,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3005,10 +3005,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -3030,13 +3030,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>176</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>14</v>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3057,13 +3057,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3084,13 +3084,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3114,7 +3114,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -3164,7 +3164,7 @@
         <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -3187,10 +3187,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -3210,7 +3210,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -3233,10 +3233,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3420,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>127</v>
@@ -3445,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -3470,10 +3470,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -3495,10 +3495,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -3518,10 +3518,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -3541,10 +3541,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -3566,13 +3566,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>176</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>178</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>14</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3593,13 +3593,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3620,13 +3620,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3650,7 +3650,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
@@ -3700,7 +3700,7 @@
         <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -3723,10 +3723,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
@@ -3746,7 +3746,7 @@
         <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -3769,10 +3769,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -3912,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -3969,7 +3969,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -3991,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -4016,10 +4016,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>20</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4070,13 +4070,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4100,7 +4100,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -4122,13 +4122,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4149,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>57</v>
@@ -4202,7 +4202,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4224,10 +4224,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -4249,16 +4249,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -4302,7 +4302,7 @@
         <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -4325,10 +4325,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>14</v>
@@ -4348,7 +4348,7 @@
         <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -4371,10 +4371,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>14</v>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -4481,7 +4481,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -4510,7 +4510,7 @@
         <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -4535,7 +4535,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -4560,7 +4560,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -4585,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -4610,7 +4610,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -4635,7 +4635,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -4660,7 +4660,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -4685,7 +4685,7 @@
         <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -4710,7 +4710,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -4735,7 +4735,7 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -4758,7 +4758,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -4781,7 +4781,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -4806,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4833,7 +4833,7 @@
         <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
@@ -4856,10 +4856,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>45</v>
@@ -4879,7 +4879,7 @@
         <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -4902,10 +4902,10 @@
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>45</v>
@@ -4930,9 +4930,7 @@
   </sheetPr>
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4960,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5018,7 +5016,7 @@
         <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5044,10 +5042,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>128</v>
@@ -5097,7 +5095,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>127</v>
@@ -5122,10 +5120,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>127</v>
@@ -5147,10 +5145,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5172,10 +5170,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -5197,10 +5195,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -5220,10 +5218,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -5243,16 +5241,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5268,10 +5266,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -5348,7 +5346,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -5371,10 +5369,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>45</v>
@@ -5394,7 +5392,7 @@
         <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
@@ -5417,10 +5415,10 @@
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>45</v>
@@ -5469,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5524,10 +5522,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -5557,15 +5555,15 @@
         <v>136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>140</v>
@@ -5606,7 +5604,7 @@
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -5629,10 +5627,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>45</v>
@@ -5652,7 +5650,7 @@
         <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -5675,10 +5673,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>45</v>
@@ -5853,7 +5851,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6214,7 +6212,7 @@
         <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -6237,10 +6235,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>14</v>
@@ -6260,7 +6258,7 @@
         <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
@@ -6283,10 +6281,10 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
@@ -6447,7 +6445,7 @@
         <v>106</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
@@ -6576,7 +6574,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -6599,10 +6597,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -6622,7 +6620,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -6645,10 +6643,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -6688,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6696,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6709,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -6751,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -6805,10 +6803,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -6880,13 +6878,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
@@ -6898,7 +6896,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6907,13 +6905,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -6932,13 +6930,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -6983,7 +6981,7 @@
         <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -7006,10 +7004,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>
@@ -7029,7 +7027,7 @@
         <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -7052,10 +7050,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -7104,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7162,7 +7160,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -7213,10 +7211,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -7238,10 +7236,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -7289,7 +7287,7 @@
         <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -7312,10 +7310,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
@@ -7335,7 +7333,7 @@
         <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -7358,10 +7356,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7402,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7410,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7465,10 +7463,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -7522,7 +7520,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -7544,13 +7542,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -7562,7 +7560,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7571,7 +7569,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -7589,7 +7587,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="16" customFormat="1">
@@ -7598,16 +7596,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7616,7 +7614,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7651,7 +7649,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -7674,10 +7672,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -7697,7 +7695,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -7720,10 +7718,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>14</v>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -7,26 +7,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="24" r:id="rId1"/>
     <sheet name="企業マスタ" sheetId="8" r:id="rId2"/>
     <sheet name="従業員マスタ" sheetId="1" r:id="rId3"/>
-    <sheet name="パスワードマスタ" sheetId="9" r:id="rId4"/>
+    <sheet name="従業員パスワードマスタ" sheetId="9" r:id="rId4"/>
     <sheet name="評価方式マスタ" sheetId="19" r:id="rId5"/>
-    <sheet name="メールマスタ" sheetId="20" r:id="rId6"/>
-    <sheet name="メール送信データ" sheetId="23" r:id="rId7"/>
-    <sheet name="質問グループマスタ" sheetId="13" r:id="rId8"/>
-    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId9"/>
-    <sheet name="質問マスタ" sheetId="15" r:id="rId10"/>
-    <sheet name="評価者(社内)マスタ" sheetId="14" r:id="rId11"/>
-    <sheet name="評価者(社外)マスタ" sheetId="22" r:id="rId12"/>
-    <sheet name="評価結果データ" sheetId="16" r:id="rId13"/>
+    <sheet name="メール設定マスタ" sheetId="20" r:id="rId6"/>
+    <sheet name="質問グループマスタ" sheetId="13" r:id="rId7"/>
+    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId8"/>
+    <sheet name="質問マスタ" sheetId="15" r:id="rId9"/>
+    <sheet name="評価者社内マスタ" sheetId="14" r:id="rId10"/>
+    <sheet name="評価者社外マスタ" sheetId="22" r:id="rId11"/>
+    <sheet name="お知らせデータ" sheetId="25" r:id="rId12"/>
+    <sheet name="メール送信データ" sheetId="23" r:id="rId13"/>
+    <sheet name="評価結果データ" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="300">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -174,13 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーを管理する</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業マスタ</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -201,17 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企業ID</t>
-    <rPh sb="0" eb="2">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -230,10 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,13 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問データ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問グループマスタ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -314,13 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーのパスワードを管理する</t>
-    <rPh sb="11" eb="13">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問データのグループを管理する</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -677,24 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール内容を管理する</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,10 +808,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問カテゴリ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -901,24 +844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>従業員ID</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>企業ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業コード</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -929,18 +854,6 @@
     <t>〇</t>
   </si>
   <si>
-    <t>UniqueIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UniqueIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UniqueIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号など</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -970,10 +883,6 @@
   </si>
   <si>
     <t>○</t>
-  </si>
-  <si>
-    <t>mst_password</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password_id</t>
@@ -1345,10 +1254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>company_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1396,31 +1301,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_deleted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>update_user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>update_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインアカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_login_account</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1745,27 +1634,240 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_id</t>
+    <t>employee_rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_deleted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業SEQ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員SEQ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせデータ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員パスワードマスタ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trn_information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページで使用するお知らせ</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせSEQ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_employee_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員のパスワードを管理する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員（評価対象者）の情報を管理する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>タイショウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信設定を管理する</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_mail_send_template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信テンプレートマスタ</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：有効</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mst_employee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_rank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_department1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_last_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1773,7 +1875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,8 +1920,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,18 +1953,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1866,15 +1979,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1914,16 +2018,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1937,13 +2086,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1952,17 +2094,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1987,8 +2129,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2021,6 +2187,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2030,49 +2201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>13848</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>13849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>42328</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>63371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13848" y="13849"/>
-          <a:ext cx="16362989" cy="15178686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2362,488 +2490,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="FF51" sqref="FF51"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="32">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="35" t="str">
+        <f>企業マスタ!$B$2</f>
+        <v>企業マスタ</v>
+      </c>
+      <c r="D2" s="32" t="str">
+        <f>企業マスタ!$B$5</f>
+        <v>企業情報を管理する</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="33">
+        <f t="shared" ref="A3:A16" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="36" t="str">
+        <f>従業員マスタ!$B$2</f>
+        <v>従業員マスタ</v>
+      </c>
+      <c r="D3" s="33" t="str">
+        <f>従業員マスタ!$B$5</f>
+        <v>従業員（評価対象者）の情報を管理する</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <f>従業員パスワードマスタ!$B$2</f>
+        <v>従業員パスワードマスタ</v>
+      </c>
+      <c r="D4" s="33" t="str">
+        <f>従業員パスワードマスタ!$B$5</f>
+        <v>従業員のパスワードを管理する</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f>評価方式マスタ!$B$2</f>
+        <v>評価方式マスタ</v>
+      </c>
+      <c r="D5" s="33" t="str">
+        <f>評価方式マスタ!$B$5</f>
+        <v>評価方式を管理する</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="36" t="str">
+        <f>メール設定マスタ!$B$2</f>
+        <v>メール送信テンプレートマスタ</v>
+      </c>
+      <c r="D6" s="33" t="str">
+        <f>メール設定マスタ!$B$5</f>
+        <v>メール送信設定を管理する</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f>質問グループマスタ!$B$2</f>
+        <v>質問グループマスタ</v>
+      </c>
+      <c r="D7" s="33" t="str">
+        <f>質問グループマスタ!$B$5</f>
+        <v>質問データのグループを管理する</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f>質問グループサブマスタ!$B$2</f>
+        <v>質問グループサブマスタ</v>
+      </c>
+      <c r="D8" s="33" t="str">
+        <f>質問グループサブマスタ!$B$5</f>
+        <v>質問データのグループを管理する</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f>質問マスタ!$B$2</f>
+        <v>質問マスタ</v>
+      </c>
+      <c r="D9" s="33" t="str">
+        <f>質問マスタ!$B$5</f>
+        <v>評価を行う質問データを管理する</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>評価者社内マスタ!$B$2</f>
+        <v>評価者(社内)マスタ</v>
+      </c>
+      <c r="D10" s="33" t="str">
+        <f>評価者社内マスタ!$B$5</f>
+        <v>評価者と被評価者の関係を管理する</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="42" t="str">
+        <f>評価者社外マスタ!$B$2</f>
+        <v>評価者(社外)マスタ</v>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f>評価者社外マスタ!$B$5</f>
+        <v>評価者と被評価者の関係を管理する</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="35" t="str">
+        <f>お知らせデータ!$B$2</f>
+        <v>お知らせデータ</v>
+      </c>
+      <c r="D12" s="32" t="str">
+        <f>お知らせデータ!$B$5</f>
+        <v>トップページで使用するお知らせ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f>メール送信データ!$B$2</f>
+        <v>メール送信データ</v>
+      </c>
+      <c r="D13" s="33" t="str">
+        <f>メール送信データ!$B$5</f>
+        <v>メール送信</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <f>評価結果データ!$B$2</f>
+        <v>評価結果データ</v>
+      </c>
+      <c r="D14" s="33" t="str">
+        <f>評価結果データ!$B$5</f>
+        <v>評価データ</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="C2" location="企業マスタ!A1" display="企業マスタ!A1"/>
+    <hyperlink ref="C3" location="従業員マスタ!A1" display="従業員マスタ!A1"/>
+    <hyperlink ref="C4" location="従業員パスワードマスタ!A1" display="従業員パスワードマスタ!A1"/>
+    <hyperlink ref="C5" location="評価方式マスタ!A1" display="評価方式マスタ!A1"/>
+    <hyperlink ref="C6" location="メール設定マスタ!A1" display="メール設定マスタ!A1"/>
+    <hyperlink ref="C7" location="質問グループマスタ!A1" display="質問グループマスタ!A1"/>
+    <hyperlink ref="C8" location="質問グループサブマスタ!A1" display="質問グループサブマスタ!A1"/>
+    <hyperlink ref="C9" location="質問マスタ!A1" display="質問マスタ!A1"/>
+    <hyperlink ref="C10" location="評価者社内マスタ!A1" display="評価者社内マスタ!A1"/>
+    <hyperlink ref="C11" location="評価者社外マスタ!A1" display="評価者社外マスタ!A1"/>
+    <hyperlink ref="C12" location="お知らせデータ!A1" display="お知らせデータ!A1"/>
+    <hyperlink ref="C13" location="メール送信データ!A1" display="メール送信データ!A1"/>
+    <hyperlink ref="C14" location="評価結果データ!A1" display="評価結果データ!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="5">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>125</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>125</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2859,64 +2800,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2926,26 +2869,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>155</v>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2955,23 +2898,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -2980,23 +2923,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -3005,50 +2948,50 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="26.4">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="28" t="s">
-        <v>177</v>
+      <c r="B12" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3057,25 +3000,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3084,25 +3027,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3111,23 +3054,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -3139,20 +3082,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -3160,22 +3105,22 @@
         <f t="shared" ref="A17:A20" si="2">ROW()-7</f>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>131</v>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>125</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -3183,22 +3128,22 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
@@ -3206,22 +3151,22 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>132</v>
+      <c r="B19" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>125</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
@@ -3229,22 +3174,22 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
   </sheetData>
@@ -3254,11 +3199,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3274,64 +3221,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3341,26 +3290,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>155</v>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3370,23 +3319,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -3395,23 +3344,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -3419,24 +3368,24 @@
         <f t="shared" ref="A11:A16" si="0">ROW()-7</f>
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>262</v>
+      <c r="B11" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="5">
+        <v>118</v>
+      </c>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -3444,24 +3393,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>263</v>
+      <c r="B12" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -3470,23 +3419,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>100</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -3495,21 +3444,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>100</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -3518,21 +3467,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>50</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -3540,51 +3489,51 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>267</v>
+      <c r="B16" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>255</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="39.6">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <f>ROW()-7</f>
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="28" t="s">
-        <v>177</v>
+      <c r="B17" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3593,25 +3542,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3620,25 +3569,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3647,23 +3596,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="8"/>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -3675,20 +3624,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
@@ -3696,22 +3647,22 @@
         <f t="shared" ref="A22:A25" si="2">ROW()-7</f>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>131</v>
+      <c r="B22" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>125</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -3719,22 +3670,22 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -3742,22 +3693,22 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>132</v>
+      <c r="B24" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>125</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -3765,59 +3716,59 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="C29" s="24"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="C30" s="24"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="C31" s="24"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="C32" s="25"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="26"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="27"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="26"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="27"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="26"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="27"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="26"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="25"/>
+      <c r="C41" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3826,11 +3777,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3845,64 +3798,744 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A14" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>255</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>125</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>125</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>255</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>500</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3912,25 +4545,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -3941,23 +4574,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -3966,23 +4599,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -3991,23 +4624,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -4016,52 +4649,52 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="28" t="s">
-        <v>177</v>
+      <c r="E13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4070,25 +4703,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4097,23 +4730,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -4121,26 +4754,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>196</v>
+      <c r="B16" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4148,24 +4781,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>160</v>
+      <c r="B17" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="8"/>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -4174,23 +4807,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>50</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
@@ -4199,23 +4832,23 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>100</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
@@ -4224,23 +4857,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -4249,23 +4882,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
@@ -4277,20 +4910,22 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -4298,22 +4933,22 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>131</v>
+      <c r="B23" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>125</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -4321,22 +4956,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -4344,22 +4979,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>132</v>
+      <c r="B25" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>125</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
@@ -4367,22 +5002,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
   </sheetData>
@@ -4395,7 +5030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4411,64 +5048,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4478,25 +5117,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -4507,23 +5146,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>25</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -4532,23 +5171,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>50</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -4557,23 +5196,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -4582,23 +5221,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>20</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -4607,23 +5246,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>125</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -4632,23 +5271,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>20</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -4657,23 +5296,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>100</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -4682,23 +5321,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>100</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -4707,23 +5346,23 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>100</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -4732,21 +5371,21 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <v>100</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
@@ -4755,21 +5394,21 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <v>50</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
@@ -4778,23 +5417,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <v>255</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -4806,22 +5445,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="8"/>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4829,22 +5470,22 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>131</v>
+      <c r="B22" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>125</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -4852,22 +5493,22 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -4875,22 +5516,22 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>132</v>
+      <c r="B24" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>125</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -4898,22 +5539,22 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
   </sheetData>
@@ -4928,9 +5569,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4946,222 +5589,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1">
-      <c r="A9" s="12">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>43</v>
+      <c r="B11" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="5">
+        <v>118</v>
+      </c>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="23"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>223</v>
+      <c r="B12" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>224</v>
+      <c r="B13" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="E13" s="18">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11">
@@ -5170,23 +5815,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>100</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11">
@@ -5195,44 +5838,46 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22">
-        <v>100</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="18">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>227</v>
+      <c r="B16" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="22">
-        <v>50</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -5240,24 +5885,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>228</v>
+      <c r="B17" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="17">
+        <v>255</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -5265,76 +5910,76 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>229</v>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="21">
-        <v>255</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19:A23" si="1">ROW()-7</f>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A24" si="1">ROW()-7</f>
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -5342,22 +5987,22 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>131</v>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>125</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
@@ -5365,22 +6010,22 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>17</v>
+      <c r="B22" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -5388,46 +6033,23 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>132</v>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5">
-        <v>125</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5440,7 +6062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5455,64 +6079,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5522,25 +6148,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
@@ -5549,24 +6175,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>140</v>
+      <c r="I9" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -5576,23 +6202,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>250</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -5600,22 +6226,22 @@
         <f t="shared" ref="A11:A14" si="0">ROW()-7</f>
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>131</v>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>125</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -5623,22 +6249,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -5646,22 +6272,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>132</v>
+      <c r="B13" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>125</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -5669,22 +6295,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
   </sheetData>
@@ -5697,7 +6323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5712,64 +6340,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5779,25 +6409,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -5808,23 +6438,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -5833,25 +6463,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5860,25 +6490,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5887,25 +6517,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5914,25 +6544,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5941,25 +6571,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5968,25 +6598,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5995,25 +6625,25 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6022,25 +6652,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6049,25 +6679,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6076,25 +6706,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6103,25 +6733,25 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6130,25 +6760,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6157,25 +6787,25 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6187,20 +6817,22 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -6208,22 +6840,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>131</v>
+      <c r="B24" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>125</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -6231,22 +6863,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
@@ -6254,22 +6886,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>132</v>
+      <c r="B26" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>125</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10">
@@ -6277,22 +6909,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
@@ -6306,7 +6938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -6321,64 +6955,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6388,25 +7024,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -6417,23 +7053,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -6442,25 +7078,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>238</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="19" t="s">
-        <v>107</v>
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6469,25 +7105,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6496,23 +7132,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -6521,23 +7157,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>500</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -6549,20 +7185,22 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -6570,22 +7208,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>131</v>
+      <c r="B15" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>125</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -6593,22 +7231,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -6616,22 +7254,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>132</v>
+      <c r="B17" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>125</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -6639,22 +7277,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -6665,9 +7303,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -6682,472 +7322,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <f>ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>255</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>50</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>500</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>125</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>125</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7157,53 +7391,53 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:10" s="12" customFormat="1">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -7211,10 +7445,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -7222,12 +7456,12 @@
       <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -7236,10 +7470,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -7247,10 +7481,10 @@
       <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -7262,20 +7496,22 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -7283,22 +7519,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>131</v>
+      <c r="B13" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>125</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -7306,22 +7542,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -7329,22 +7565,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>132</v>
+      <c r="B15" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>125</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -7352,22 +7588,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
   </sheetData>
@@ -7376,11 +7612,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -7396,64 +7634,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7463,53 +7703,53 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:10" s="12" customFormat="1">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -7517,23 +7757,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -7541,26 +7781,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>196</v>
+      <c r="B11" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7568,53 +7808,53 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>160</v>
+      <c r="B12" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="16" customFormat="1">
-      <c r="A13" s="13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="12" customFormat="1">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13" t="s">
-        <v>165</v>
+      <c r="B13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7626,18 +7866,20 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -7645,22 +7887,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>131</v>
+      <c r="B15" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>125</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -7668,22 +7910,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -7691,22 +7933,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>132</v>
+      <c r="B17" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>125</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -7714,23 +7956,488 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -7,26 +7,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル一覧" sheetId="12" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="24" r:id="rId1"/>
     <sheet name="企業マスタ" sheetId="8" r:id="rId2"/>
     <sheet name="従業員マスタ" sheetId="1" r:id="rId3"/>
-    <sheet name="パスワードマスタ" sheetId="9" r:id="rId4"/>
+    <sheet name="従業員パスワードマスタ" sheetId="9" r:id="rId4"/>
     <sheet name="評価方式マスタ" sheetId="19" r:id="rId5"/>
-    <sheet name="メールマスタ" sheetId="20" r:id="rId6"/>
-    <sheet name="メール送信データ" sheetId="23" r:id="rId7"/>
-    <sheet name="質問グループマスタ" sheetId="13" r:id="rId8"/>
-    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId9"/>
-    <sheet name="質問マスタ" sheetId="15" r:id="rId10"/>
-    <sheet name="評価者(社内)マスタ" sheetId="14" r:id="rId11"/>
-    <sheet name="評価者(社外)マスタ" sheetId="22" r:id="rId12"/>
-    <sheet name="評価結果データ" sheetId="16" r:id="rId13"/>
+    <sheet name="メール設定マスタ" sheetId="20" r:id="rId6"/>
+    <sheet name="質問グループマスタ" sheetId="13" r:id="rId7"/>
+    <sheet name="質問グループサブマスタ" sheetId="21" r:id="rId8"/>
+    <sheet name="質問マスタ" sheetId="15" r:id="rId9"/>
+    <sheet name="評価者社内マスタ" sheetId="14" r:id="rId10"/>
+    <sheet name="評価者社外マスタ" sheetId="22" r:id="rId11"/>
+    <sheet name="お知らせデータ" sheetId="25" r:id="rId12"/>
+    <sheet name="メール送信データ" sheetId="23" r:id="rId13"/>
+    <sheet name="評価結果データ" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="300">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -174,13 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーを管理する</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業マスタ</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -201,17 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企業ID</t>
-    <rPh sb="0" eb="2">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業名</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -230,10 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,13 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問データ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問グループマスタ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -314,13 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーのパスワードを管理する</t>
-    <rPh sb="11" eb="13">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問データのグループを管理する</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -677,24 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mst_mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール内容を管理する</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,10 +808,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問カテゴリ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -901,24 +844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>従業員ID</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>企業ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業コード</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -929,18 +854,6 @@
     <t>〇</t>
   </si>
   <si>
-    <t>UniqueIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UniqueIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UniqueIndex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号など</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -970,10 +883,6 @@
   </si>
   <si>
     <t>○</t>
-  </si>
-  <si>
-    <t>mst_password</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password_id</t>
@@ -1341,14 +1250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mst_company</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>company_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1396,31 +1297,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_deleted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>update_user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>update_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインアカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_login_account</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1745,7 +1630,236 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_id</t>
+    <t>employee_rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_deleted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業SEQ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員SEQ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせデータ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員パスワードマスタ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trn_information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページで使用するお知らせ</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせSEQ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_employee_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員のパスワードを管理する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員（評価対象者）の情報を管理する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>タイショウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信設定を管理する</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mst_mail_send_template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信テンプレートマスタ</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：有効</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1753,19 +1867,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_rank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_department1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>employee_last_name</t>
+    <t>mst_company</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1773,7 +1875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,8 +1920,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,18 +1953,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1866,15 +1979,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1914,16 +2018,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1937,13 +2086,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1952,17 +2094,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1987,8 +2129,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2021,6 +2187,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2030,49 +2201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>13848</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>13849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>42328</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>63371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13848" y="13849"/>
-          <a:ext cx="16362989" cy="15178686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2362,488 +2490,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="FF51" sqref="FF51"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="32">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="35" t="str">
+        <f>企業マスタ!$B$2</f>
+        <v>企業マスタ</v>
+      </c>
+      <c r="D2" s="32" t="str">
+        <f>企業マスタ!$B$5</f>
+        <v>企業情報を管理する</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="33">
+        <f t="shared" ref="A3:A16" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="36" t="str">
+        <f>従業員マスタ!$B$2</f>
+        <v>従業員マスタ</v>
+      </c>
+      <c r="D3" s="33" t="str">
+        <f>従業員マスタ!$B$5</f>
+        <v>従業員（評価対象者）の情報を管理する</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <f>従業員パスワードマスタ!$B$2</f>
+        <v>従業員パスワードマスタ</v>
+      </c>
+      <c r="D4" s="33" t="str">
+        <f>従業員パスワードマスタ!$B$5</f>
+        <v>従業員のパスワードを管理する</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f>評価方式マスタ!$B$2</f>
+        <v>評価方式マスタ</v>
+      </c>
+      <c r="D5" s="33" t="str">
+        <f>評価方式マスタ!$B$5</f>
+        <v>評価方式を管理する</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="36" t="str">
+        <f>メール設定マスタ!$B$2</f>
+        <v>メール送信テンプレートマスタ</v>
+      </c>
+      <c r="D6" s="33" t="str">
+        <f>メール設定マスタ!$B$5</f>
+        <v>メール送信設定を管理する</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f>質問グループマスタ!$B$2</f>
+        <v>質問グループマスタ</v>
+      </c>
+      <c r="D7" s="33" t="str">
+        <f>質問グループマスタ!$B$5</f>
+        <v>質問データのグループを管理する</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f>質問グループサブマスタ!$B$2</f>
+        <v>質問グループサブマスタ</v>
+      </c>
+      <c r="D8" s="33" t="str">
+        <f>質問グループサブマスタ!$B$5</f>
+        <v>質問データのグループを管理する</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="36" t="str">
+        <f>質問マスタ!$B$2</f>
+        <v>質問マスタ</v>
+      </c>
+      <c r="D9" s="33" t="str">
+        <f>質問マスタ!$B$5</f>
+        <v>評価を行う質問データを管理する</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>評価者社内マスタ!$B$2</f>
+        <v>評価者(社内)マスタ</v>
+      </c>
+      <c r="D10" s="33" t="str">
+        <f>評価者社内マスタ!$B$5</f>
+        <v>評価者と被評価者の関係を管理する</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="42" t="str">
+        <f>評価者社外マスタ!$B$2</f>
+        <v>評価者(社外)マスタ</v>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f>評価者社外マスタ!$B$5</f>
+        <v>評価者と被評価者の関係を管理する</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="35" t="str">
+        <f>お知らせデータ!$B$2</f>
+        <v>お知らせデータ</v>
+      </c>
+      <c r="D12" s="32" t="str">
+        <f>お知らせデータ!$B$5</f>
+        <v>トップページで使用するお知らせ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f>メール送信データ!$B$2</f>
+        <v>メール送信データ</v>
+      </c>
+      <c r="D13" s="33" t="str">
+        <f>メール送信データ!$B$5</f>
+        <v>メール送信</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <f>評価結果データ!$B$2</f>
+        <v>評価結果データ</v>
+      </c>
+      <c r="D14" s="33" t="str">
+        <f>評価結果データ!$B$5</f>
+        <v>評価データ</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="C2" location="企業マスタ!A1" display="企業マスタ!A1"/>
+    <hyperlink ref="C3" location="従業員マスタ!A1" display="従業員マスタ!A1"/>
+    <hyperlink ref="C4" location="従業員パスワードマスタ!A1" display="従業員パスワードマスタ!A1"/>
+    <hyperlink ref="C5" location="評価方式マスタ!A1" display="評価方式マスタ!A1"/>
+    <hyperlink ref="C6" location="メール設定マスタ!A1" display="メール設定マスタ!A1"/>
+    <hyperlink ref="C7" location="質問グループマスタ!A1" display="質問グループマスタ!A1"/>
+    <hyperlink ref="C8" location="質問グループサブマスタ!A1" display="質問グループサブマスタ!A1"/>
+    <hyperlink ref="C9" location="質問マスタ!A1" display="質問マスタ!A1"/>
+    <hyperlink ref="C10" location="評価者社内マスタ!A1" display="評価者社内マスタ!A1"/>
+    <hyperlink ref="C11" location="評価者社外マスタ!A1" display="評価者社外マスタ!A1"/>
+    <hyperlink ref="C12" location="お知らせデータ!A1" display="お知らせデータ!A1"/>
+    <hyperlink ref="C13" location="メール送信データ!A1" display="メール送信データ!A1"/>
+    <hyperlink ref="C14" location="評価結果データ!A1" display="評価結果データ!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="5">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>100</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>125</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>125</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2859,64 +2800,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2926,26 +2869,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>155</v>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2955,23 +2898,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -2980,23 +2923,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -3005,50 +2948,50 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="26.4">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="28" t="s">
-        <v>177</v>
+      <c r="B12" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3057,25 +3000,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3084,25 +3027,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3111,23 +3054,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -3139,20 +3082,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -3160,22 +3105,22 @@
         <f t="shared" ref="A17:A20" si="2">ROW()-7</f>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>131</v>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>125</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -3183,22 +3128,22 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
@@ -3206,22 +3151,22 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>132</v>
+      <c r="B19" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>125</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
@@ -3229,22 +3174,22 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
   </sheetData>
@@ -3254,11 +3199,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3274,64 +3221,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3341,26 +3290,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>155</v>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3370,23 +3319,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -3395,23 +3344,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -3419,24 +3368,24 @@
         <f t="shared" ref="A11:A16" si="0">ROW()-7</f>
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>262</v>
+      <c r="B11" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="5">
+        <v>118</v>
+      </c>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -3444,24 +3393,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>263</v>
+      <c r="B12" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -3470,23 +3419,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>100</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -3495,21 +3444,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>100</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -3518,21 +3467,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>50</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -3540,51 +3489,51 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>267</v>
+      <c r="B16" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>255</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="39.6">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <f>ROW()-7</f>
         <v>10</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="28" t="s">
-        <v>177</v>
+      <c r="B17" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3593,25 +3542,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3620,25 +3569,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3647,23 +3596,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="8"/>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -3675,20 +3624,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
@@ -3696,22 +3647,22 @@
         <f t="shared" ref="A22:A25" si="2">ROW()-7</f>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>131</v>
+      <c r="B22" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>125</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -3719,22 +3670,22 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -3742,22 +3693,22 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>132</v>
+      <c r="B24" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>125</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -3765,59 +3716,59 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="C29" s="24"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="C30" s="24"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="C31" s="24"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="C32" s="25"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="26"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="27"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="26"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="27"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="26"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="27"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="26"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="25"/>
+      <c r="C41" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3826,11 +3777,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3845,64 +3798,744 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A14" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>255</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>125</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>125</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>255</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>500</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3912,25 +4545,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -3941,23 +4574,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -3966,23 +4599,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -3991,23 +4624,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -4016,52 +4649,52 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="28" t="s">
-        <v>177</v>
+      <c r="E13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4070,25 +4703,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4097,23 +4730,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -4121,26 +4754,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>196</v>
+      <c r="B16" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4148,24 +4781,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>160</v>
+      <c r="B17" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="8"/>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -4174,23 +4807,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>50</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
@@ -4199,23 +4832,23 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>100</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
@@ -4224,23 +4857,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -4249,23 +4882,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
@@ -4277,20 +4910,22 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -4298,22 +4933,22 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>131</v>
+      <c r="B23" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>125</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -4321,22 +4956,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -4344,22 +4979,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>132</v>
+      <c r="B25" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>125</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
@@ -4367,22 +5002,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
   </sheetData>
@@ -4395,7 +5030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4411,64 +5048,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4478,25 +5117,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -4507,23 +5146,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>25</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -4532,23 +5171,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>50</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -4557,23 +5196,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -4582,23 +5221,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>20</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -4607,23 +5246,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>125</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -4632,23 +5271,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>20</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -4657,23 +5296,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="18">
         <v>100</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -4682,23 +5321,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>100</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -4707,23 +5346,23 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="18">
         <v>100</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -4732,21 +5371,21 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="18">
         <v>100</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
@@ -4755,21 +5394,21 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <v>50</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
@@ -4778,23 +5417,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="18">
         <v>255</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -4806,22 +5445,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="8"/>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4829,22 +5470,22 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>131</v>
+      <c r="B22" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>125</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -4852,22 +5493,22 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -4875,22 +5516,22 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>132</v>
+      <c r="B24" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>125</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -4898,22 +5539,22 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
   </sheetData>
@@ -4928,9 +5569,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -4946,222 +5589,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1">
-      <c r="A9" s="12">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>43</v>
+      <c r="B11" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="5">
+        <v>118</v>
+      </c>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="23"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>223</v>
+      <c r="B12" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>224</v>
+      <c r="B13" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="E13" s="18">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11">
@@ -5170,23 +5815,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>100</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11">
@@ -5195,44 +5838,46 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="22">
-        <v>100</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="18">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>227</v>
+      <c r="B16" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="22">
-        <v>50</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -5240,24 +5885,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>228</v>
+      <c r="B17" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="17">
+        <v>255</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -5265,76 +5910,76 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>229</v>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="21">
-        <v>255</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A19:A23" si="1">ROW()-7</f>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:A24" si="1">ROW()-7</f>
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
@@ -5342,22 +5987,22 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>131</v>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>125</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
@@ -5365,22 +6010,22 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>17</v>
+      <c r="B22" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
@@ -5388,46 +6033,23 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>132</v>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5">
-        <v>125</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5440,7 +6062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5455,64 +6079,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5522,25 +6148,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
@@ -5549,24 +6175,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>140</v>
+      <c r="I9" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -5576,23 +6202,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>250</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -5600,22 +6226,22 @@
         <f t="shared" ref="A11:A14" si="0">ROW()-7</f>
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>131</v>
+      <c r="B11" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>125</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -5623,22 +6249,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -5646,22 +6272,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>132</v>
+      <c r="B13" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>125</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -5669,22 +6295,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
   </sheetData>
@@ -5697,7 +6323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5712,64 +6340,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5779,25 +6409,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -5808,23 +6438,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -5833,25 +6463,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5860,25 +6490,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5887,25 +6517,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5914,25 +6544,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5941,25 +6571,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5968,25 +6598,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5995,25 +6625,25 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6022,25 +6652,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6049,25 +6679,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6076,25 +6706,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6103,25 +6733,25 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6130,25 +6760,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6157,25 +6787,25 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6187,20 +6817,22 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
@@ -6208,22 +6840,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>131</v>
+      <c r="B24" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>125</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
@@ -6231,22 +6863,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
@@ -6254,22 +6886,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>132</v>
+      <c r="B26" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>125</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10">
@@ -6277,22 +6909,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="1"/>
     </row>
   </sheetData>
@@ -6306,7 +6938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -6321,64 +6955,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6388,25 +7024,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
@@ -6417,23 +7053,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
@@ -6442,25 +7078,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>238</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="19" t="s">
-        <v>107</v>
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6469,25 +7105,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6496,23 +7132,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -6521,23 +7157,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>500</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -6549,20 +7185,22 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -6570,22 +7208,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>131</v>
+      <c r="B15" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>125</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -6593,22 +7231,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -6616,22 +7254,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>132</v>
+      <c r="B17" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>125</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -6639,22 +7277,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -6665,9 +7303,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -6682,472 +7322,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <f>ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>255</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>50</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>500</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>125</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>125</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7157,53 +7391,53 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:10" s="12" customFormat="1">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -7211,10 +7445,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -7222,12 +7456,12 @@
       <c r="E10" s="1">
         <v>100</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -7236,10 +7470,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -7247,10 +7481,10 @@
       <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
@@ -7262,20 +7496,22 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
@@ -7283,22 +7519,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>131</v>
+      <c r="B13" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>125</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -7306,22 +7542,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -7329,22 +7565,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>132</v>
+      <c r="B15" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>125</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -7352,22 +7588,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
   </sheetData>
@@ -7376,11 +7612,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -7396,64 +7634,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="B2" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="B3" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7463,53 +7703,53 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="16" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:10" s="12" customFormat="1">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -7517,23 +7757,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
@@ -7541,26 +7781,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>196</v>
+      <c r="B11" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7568,53 +7808,53 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>160</v>
+      <c r="B12" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="16" customFormat="1">
-      <c r="A13" s="13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="12" customFormat="1">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13" t="s">
-        <v>165</v>
+      <c r="B13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7626,18 +7866,20 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
@@ -7645,22 +7887,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>131</v>
+      <c r="B15" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>125</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
@@ -7668,22 +7910,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
@@ -7691,22 +7933,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>132</v>
+      <c r="B17" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>125</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
@@ -7714,23 +7956,488 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3"/>
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="294">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -104,19 +104,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -151,10 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,10 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>scope_of_disclosure</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,10 +788,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問カテゴリ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -864,10 +844,6 @@
     <t>employee_department3</t>
   </si>
   <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -877,9 +853,6 @@
   <si>
     <t>パスワードマスタID</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>○</t>
@@ -997,9 +970,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>年月のみ(YYYY/MM/+01)を管理</t>
     <rPh sb="0" eb="2">
       <t>ネンゲツ</t>
@@ -1038,10 +1008,6 @@
   </si>
   <si>
     <t>relationship_with_evaluated</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SMALLINT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1204,10 +1170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面表示時の並び順を表す</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1423,10 +1385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送信回数</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
@@ -1869,6 +1827,22 @@
   <si>
     <t>mst_company</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -2505,16 +2479,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -2523,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C2" s="35" t="str">
         <f>企業マスタ!$B$2</f>
@@ -2540,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C3" s="36" t="str">
         <f>従業員マスタ!$B$2</f>
@@ -2557,7 +2531,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C4" s="36" t="str">
         <f>従業員パスワードマスタ!$B$2</f>
@@ -2574,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C5" s="36" t="str">
         <f>評価方式マスタ!$B$2</f>
@@ -2591,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C6" s="36" t="str">
         <f>メール設定マスタ!$B$2</f>
@@ -2608,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>質問グループマスタ!$B$2</f>
@@ -2625,7 +2599,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>質問グループサブマスタ!$B$2</f>
@@ -2642,7 +2616,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C9" s="36" t="str">
         <f>質問マスタ!$B$2</f>
@@ -2659,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C10" s="36" t="str">
         <f>評価者社内マスタ!$B$2</f>
@@ -2676,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C11" s="42" t="str">
         <f>評価者社外マスタ!$B$2</f>
@@ -2693,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C12" s="35" t="str">
         <f>お知らせデータ!$B$2</f>
@@ -2710,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C13" s="36" t="str">
         <f>メール送信データ!$B$2</f>
@@ -2727,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C14" s="36" t="str">
         <f>評価結果データ!$B$2</f>
@@ -2804,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -2813,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -2827,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -2851,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -2869,26 +2843,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2898,21 +2872,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -2923,21 +2897,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -2948,21 +2922,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -2973,25 +2947,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3000,25 +2974,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3027,25 +3001,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3054,21 +3028,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
@@ -3079,23 +3053,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
@@ -3106,13 +3080,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -3129,16 +3103,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -3152,13 +3126,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -3175,16 +3149,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -3225,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -3234,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -3248,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -3272,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -3290,26 +3264,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3319,21 +3293,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -3344,21 +3318,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -3369,13 +3343,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -3383,7 +3357,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -3394,13 +3368,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -3408,7 +3382,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -3419,13 +3393,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="18">
         <v>100</v>
@@ -3433,7 +3407,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -3444,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E14" s="18">
         <v>100</v>
@@ -3467,13 +3441,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="18">
         <v>50</v>
@@ -3490,13 +3464,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E16" s="17">
         <v>255</v>
@@ -3504,7 +3478,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
@@ -3515,25 +3489,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3542,25 +3516,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3569,25 +3543,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3596,21 +3570,21 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
@@ -3621,23 +3595,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
@@ -3648,13 +3622,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E22" s="4">
         <v>125</v>
@@ -3671,16 +3645,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -3694,13 +3668,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -3717,16 +3691,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -3802,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -3811,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -3825,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -3849,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -3867,26 +3841,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3896,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E9" s="4">
         <v>255</v>
@@ -3910,7 +3884,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -3921,23 +3895,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -3948,13 +3922,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4">
         <v>125</v>
@@ -3971,16 +3945,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3994,13 +3968,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -4017,16 +3991,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4066,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -4075,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -4089,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -4113,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -4131,26 +4105,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -4160,21 +4134,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -4185,13 +4159,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E10" s="4">
         <v>255</v>
@@ -4199,7 +4173,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -4210,13 +4184,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -4224,7 +4198,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -4235,13 +4209,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4">
         <v>500</v>
@@ -4249,7 +4223,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -4260,25 +4234,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4287,21 +4261,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
@@ -4312,16 +4286,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4335,23 +4309,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
@@ -4362,13 +4336,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -4385,16 +4359,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -4408,13 +4382,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -4431,16 +4405,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -4480,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -4489,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -4503,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -4527,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -4545,26 +4519,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -4574,21 +4548,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -4599,21 +4573,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -4624,21 +4598,21 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -4649,25 +4623,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
@@ -4676,25 +4650,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4703,25 +4677,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4730,21 +4704,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
@@ -4755,25 +4729,25 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4782,21 +4756,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
@@ -4807,13 +4781,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E18" s="4">
         <v>50</v>
@@ -4821,7 +4795,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
@@ -4832,13 +4806,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E19" s="4">
         <v>100</v>
@@ -4846,7 +4820,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
@@ -4857,21 +4831,21 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
@@ -4882,21 +4856,21 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="1"/>
@@ -4907,23 +4881,23 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
@@ -4934,13 +4908,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E23" s="4">
         <v>125</v>
@@ -4957,16 +4931,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -4980,13 +4954,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E25" s="4">
         <v>125</v>
@@ -5003,16 +4977,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -5031,7 +5005,7 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5052,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -5061,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -5075,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -5099,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -5117,26 +5091,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -5146,13 +5120,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E9" s="4">
         <v>25</v>
@@ -5160,7 +5134,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -5171,13 +5145,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E10" s="18">
         <v>50</v>
@@ -5185,7 +5159,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -5196,13 +5170,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E11" s="18">
         <v>50</v>
@@ -5210,7 +5184,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -5221,13 +5195,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E12" s="18">
         <v>20</v>
@@ -5235,7 +5209,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -5246,13 +5220,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="18">
         <v>125</v>
@@ -5260,7 +5234,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -5271,13 +5245,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E14" s="18">
         <v>20</v>
@@ -5285,7 +5259,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
@@ -5296,13 +5270,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="18">
         <v>100</v>
@@ -5310,7 +5284,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
@@ -5321,13 +5295,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E16" s="18">
         <v>100</v>
@@ -5335,7 +5309,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
@@ -5346,13 +5320,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E17" s="18">
         <v>100</v>
@@ -5360,7 +5334,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
@@ -5371,13 +5345,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E18" s="18">
         <v>100</v>
@@ -5394,13 +5368,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E19" s="18">
         <v>50</v>
@@ -5417,13 +5391,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E20" s="18">
         <v>255</v>
@@ -5431,7 +5405,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
@@ -5442,27 +5416,27 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5471,13 +5445,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E22" s="4">
         <v>125</v>
@@ -5494,16 +5468,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -5517,13 +5491,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -5540,16 +5514,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -5569,10 +5543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5593,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -5602,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -5616,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -5640,7 +5614,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -5654,30 +5628,30 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A18" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A19" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -5686,75 +5660,75 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>269</v>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>290</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>38</v>
+      <c r="B10" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="4">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="19"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>199</v>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="4">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -5765,13 +5739,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -5779,32 +5753,32 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <f>ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>201</v>
+      <c r="B13" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18">
-        <v>100</v>
+        <v>290</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -5815,20 +5789,22 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E14" s="18">
         <v>100</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
     </row>
@@ -5838,16 +5814,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -5857,26 +5833,24 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-7</f>
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>204</v>
+      <c r="B16" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>132</v>
+        <v>290</v>
+      </c>
+      <c r="E16" s="18">
+        <v>50</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
     </row>
@@ -5886,21 +5860,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="17">
-        <v>255</v>
+        <v>292</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
@@ -5910,75 +5884,77 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
+      <c r="B18" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4">
-        <v>30</v>
+        <v>290</v>
+      </c>
+      <c r="E18" s="17">
+        <v>255</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f t="shared" ref="A19:A23" si="1">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>290</v>
+      </c>
+      <c r="E19" s="4">
+        <v>30</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>121</v>
+        <f t="shared" ref="A20:A24" si="1">ROW()-7</f>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>125</v>
+        <v>292</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
@@ -5988,16 +5964,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
+        <v>290</v>
+      </c>
+      <c r="E21" s="4">
+        <v>125</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6011,16 +5987,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4">
-        <v>125</v>
+        <v>293</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6034,22 +6010,45 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>290</v>
+      </c>
+      <c r="E23" s="4">
+        <v>125</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6083,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6092,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6106,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -6130,7 +6129,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -6148,23 +6147,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="1"/>
@@ -6175,24 +6174,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -6202,13 +6201,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E10" s="17">
         <v>250</v>
@@ -6216,7 +6215,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -6227,13 +6226,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4">
         <v>125</v>
@@ -6250,16 +6249,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6273,13 +6272,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -6296,16 +6295,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6344,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6353,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6367,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -6391,7 +6390,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -6409,26 +6408,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -6438,21 +6437,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -6463,25 +6462,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6490,25 +6489,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6517,25 +6516,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6544,25 +6543,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6571,25 +6570,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6598,25 +6597,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6625,25 +6624,25 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6652,25 +6651,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6679,25 +6678,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6706,25 +6705,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6733,25 +6732,25 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6760,25 +6759,25 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6787,25 +6786,25 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6814,23 +6813,23 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="1"/>
@@ -6841,13 +6840,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -6864,16 +6863,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -6887,13 +6886,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E26" s="4">
         <v>125</v>
@@ -6910,16 +6909,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -6959,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6968,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6982,7 +6981,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -7006,7 +7005,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7024,26 +7023,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -7053,21 +7052,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1"/>
@@ -7078,25 +7077,25 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7105,25 +7104,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7132,13 +7131,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -7146,7 +7145,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -7157,13 +7156,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="4">
         <v>500</v>
@@ -7171,7 +7170,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -7182,23 +7181,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
@@ -7209,13 +7208,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7232,16 +7231,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -7255,13 +7254,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -7278,16 +7277,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -7326,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -7335,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7349,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -7373,7 +7372,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7391,26 +7390,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -7420,21 +7419,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="9"/>
@@ -7445,13 +7444,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -7459,7 +7458,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -7470,13 +7469,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -7493,23 +7492,23 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -7520,13 +7519,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -7543,16 +7542,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -7566,13 +7565,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7589,16 +7588,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -7638,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -7647,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7661,7 +7660,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -7685,7 +7684,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7703,26 +7702,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -7732,21 +7731,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="9"/>
@@ -7757,21 +7756,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -7782,25 +7781,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7809,25 +7808,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
@@ -7836,25 +7835,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7863,20 +7862,20 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -7888,13 +7887,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7911,16 +7910,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -7934,13 +7933,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -7957,16 +7956,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -8005,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -8014,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -8028,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -8052,7 +8051,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -8070,26 +8069,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -8099,25 +8098,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8126,13 +8125,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="E10" s="4">
         <v>50</v>
@@ -8140,7 +8139,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -8151,13 +8150,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4">
         <v>100</v>
@@ -8165,7 +8164,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -8176,13 +8175,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4">
         <v>20</v>
@@ -8190,7 +8189,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -8201,13 +8200,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E13" s="4">
         <v>20</v>
@@ -8215,7 +8214,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -8226,13 +8225,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
@@ -8240,7 +8239,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
@@ -8251,13 +8250,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E15" s="4">
         <v>20</v>
@@ -8265,7 +8264,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1"/>
@@ -8276,13 +8275,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E16" s="4">
         <v>20</v>
@@ -8290,7 +8289,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
@@ -8301,13 +8300,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E17" s="4">
         <v>20</v>
@@ -8315,7 +8314,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
@@ -8326,23 +8325,23 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
@@ -8353,13 +8352,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -8376,16 +8375,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -8399,13 +8398,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="E21" s="4">
         <v>125</v>
@@ -8422,16 +8421,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="300">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_deleted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>従業員コード</t>
     <rPh sb="0" eb="3">
       <t>ジュウギョウイン</t>
@@ -368,13 +364,6 @@
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
       <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1216,15 +1205,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>company_nane</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>company_kana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1638,10 +1619,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_deleted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>企業SEQ</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -1843,6 +1820,61 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>住所1</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所2</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_address1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_address2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所3</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_address3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市区町村，番地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビル名</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1912,7 +1944,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1928,6 +1960,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,7 +2080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2126,6 +2164,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2479,16 +2525,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -2497,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C2" s="35" t="str">
         <f>企業マスタ!$B$2</f>
@@ -2514,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C3" s="36" t="str">
         <f>従業員マスタ!$B$2</f>
@@ -2531,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C4" s="36" t="str">
         <f>従業員パスワードマスタ!$B$2</f>
@@ -2548,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C5" s="36" t="str">
         <f>評価方式マスタ!$B$2</f>
@@ -2565,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C6" s="36" t="str">
         <f>メール設定マスタ!$B$2</f>
@@ -2582,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>質問グループマスタ!$B$2</f>
@@ -2599,7 +2645,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>質問グループサブマスタ!$B$2</f>
@@ -2616,7 +2662,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C9" s="36" t="str">
         <f>質問マスタ!$B$2</f>
@@ -2633,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C10" s="36" t="str">
         <f>評価者社内マスタ!$B$2</f>
@@ -2650,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C11" s="42" t="str">
         <f>評価者社外マスタ!$B$2</f>
@@ -2667,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C12" s="35" t="str">
         <f>お知らせデータ!$B$2</f>
@@ -2684,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C13" s="36" t="str">
         <f>メール送信データ!$B$2</f>
@@ -2701,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C14" s="36" t="str">
         <f>評価結果データ!$B$2</f>
@@ -2778,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -2787,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -2801,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -2825,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -2843,13 +2889,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -2862,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2872,13 +2918,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -2897,13 +2943,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -2922,13 +2968,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -2947,13 +2993,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>13</v>
@@ -2965,7 +3011,7 @@
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2974,13 +3020,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -2992,7 +3038,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3001,13 +3047,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -3019,7 +3065,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3028,13 +3074,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -3056,17 +3102,17 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
@@ -3080,13 +3126,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -3106,10 +3152,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -3126,13 +3172,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -3152,10 +3198,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -3199,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -3208,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -3222,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -3246,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -3264,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -3283,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3293,13 +3339,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -3318,13 +3364,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -3343,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -3368,13 +3414,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -3393,13 +3439,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="18">
         <v>100</v>
@@ -3407,7 +3453,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1"/>
@@ -3418,13 +3464,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="18">
         <v>100</v>
@@ -3441,13 +3487,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="18">
         <v>50</v>
@@ -3464,13 +3510,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="17">
         <v>255</v>
@@ -3489,13 +3535,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>13</v>
@@ -3507,7 +3553,7 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3516,13 +3562,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -3534,7 +3580,7 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3543,13 +3589,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -3561,7 +3607,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3570,13 +3616,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -3598,17 +3644,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>14</v>
@@ -3622,13 +3668,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E22" s="4">
         <v>125</v>
@@ -3648,10 +3694,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -3668,13 +3714,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -3694,10 +3740,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -3776,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -3785,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -3799,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -3823,7 +3869,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -3841,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -3870,13 +3916,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E9" s="4">
         <v>255</v>
@@ -3898,17 +3944,17 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
@@ -3922,13 +3968,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="4">
         <v>125</v>
@@ -3948,10 +3994,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -3968,13 +4014,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -3994,10 +4040,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -4040,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -4049,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -4063,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -4087,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -4105,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4134,13 +4180,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4159,13 +4205,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E10" s="4">
         <v>255</v>
@@ -4184,13 +4230,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -4209,13 +4255,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="4">
         <v>500</v>
@@ -4234,13 +4280,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -4252,7 +4298,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4261,13 +4307,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -4286,13 +4332,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4312,17 +4358,17 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
@@ -4336,13 +4382,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -4362,10 +4408,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4382,13 +4428,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -4408,10 +4454,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4454,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -4463,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -4501,7 +4547,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -4519,13 +4565,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4548,13 +4594,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4573,13 +4619,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -4598,13 +4644,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -4623,13 +4669,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -4641,7 +4687,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
@@ -4650,13 +4696,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>13</v>
@@ -4668,7 +4714,7 @@
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4677,13 +4723,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -4695,7 +4741,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4704,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4729,13 +4775,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -4747,7 +4793,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4756,13 +4802,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -4781,13 +4827,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E18" s="4">
         <v>50</v>
@@ -4806,13 +4852,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="4">
         <v>100</v>
@@ -4831,13 +4877,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4856,16 +4902,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -4884,17 +4930,17 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>14</v>
@@ -4908,13 +4954,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E23" s="4">
         <v>125</v>
@@ -4934,10 +4980,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -4954,13 +5000,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E25" s="4">
         <v>125</v>
@@ -4980,10 +5026,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5002,10 +5048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J25"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5035,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -5073,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -5087,17 +5133,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A20" si="0">ROW()-7</f>
+        <f t="shared" ref="A8:A22" si="0">ROW()-7</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -5114,30 +5160,30 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" s="46" customFormat="1">
+      <c r="A9" s="43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="44">
         <v>25</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -5148,10 +5194,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E10" s="18">
         <v>50</v>
@@ -5159,7 +5205,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
@@ -5170,13 +5216,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="18">
         <v>50</v>
@@ -5184,7 +5230,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
@@ -5195,13 +5241,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="18">
         <v>20</v>
@@ -5209,7 +5255,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
@@ -5220,13 +5266,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="18">
         <v>125</v>
@@ -5234,10 +5280,12 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
@@ -5245,24 +5293,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="18">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
@@ -5270,24 +5320,26 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="18">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
@@ -5295,21 +5347,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="18">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1"/>
@@ -5320,13 +5372,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="18">
         <v>100</v>
@@ -5334,7 +5386,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1"/>
@@ -5345,20 +5397,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E18" s="18">
         <v>100</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
     </row>
@@ -5368,20 +5422,22 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
     </row>
@@ -5391,99 +5447,99 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E20" s="18">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:A25" si="1">ROW()-7</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>285</v>
+      </c>
+      <c r="E21" s="18">
+        <v>50</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>116</v>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="4">
-        <v>125</v>
+        <v>285</v>
+      </c>
+      <c r="E22" s="18">
+        <v>255</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A23:A27" si="1">ROW()-7</f>
         <v>16</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>15</v>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
@@ -5491,13 +5547,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -5514,22 +5570,68 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="4">
+        <v>125</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5567,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -5576,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -5590,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -5614,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -5632,13 +5734,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -5661,13 +5763,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E9" s="4">
         <v>50</v>
@@ -5679,7 +5781,7 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -5689,13 +5791,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -5714,13 +5816,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -5739,13 +5841,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -5764,13 +5866,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4">
         <v>50</v>
@@ -5789,13 +5891,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="18">
         <v>100</v>
@@ -5803,7 +5905,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1"/>
@@ -5814,13 +5916,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="18">
         <v>100</v>
@@ -5837,13 +5939,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="18">
         <v>50</v>
@@ -5860,16 +5962,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -5885,13 +5987,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E18" s="17">
         <v>255</v>
@@ -5916,7 +6018,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="4">
         <v>30</v>
@@ -5940,17 +6042,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>19</v>
@@ -5964,13 +6066,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E21" s="4">
         <v>125</v>
@@ -5990,13 +6092,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6010,13 +6112,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E23" s="4">
         <v>125</v>
@@ -6036,13 +6138,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -6082,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6091,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6105,7 +6207,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -6129,7 +6231,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -6147,13 +6249,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6174,24 +6276,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -6207,7 +6309,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E10" s="17">
         <v>250</v>
@@ -6226,13 +6328,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="4">
         <v>125</v>
@@ -6252,13 +6354,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6272,13 +6374,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -6298,13 +6400,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6343,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6352,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6366,7 +6468,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -6390,7 +6492,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -6408,13 +6510,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6437,13 +6539,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6462,13 +6564,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -6480,7 +6582,7 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6489,13 +6591,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -6507,7 +6609,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6516,13 +6618,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -6534,7 +6636,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6543,13 +6645,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -6561,7 +6663,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6570,13 +6672,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6588,7 +6690,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6597,13 +6699,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -6615,7 +6717,7 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6624,13 +6726,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6642,7 +6744,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6651,13 +6753,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6669,7 +6771,7 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6678,13 +6780,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -6696,7 +6798,7 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6705,13 +6807,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6723,7 +6825,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6732,13 +6834,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -6750,7 +6852,7 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6759,13 +6861,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -6777,7 +6879,7 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6786,13 +6888,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6804,7 +6906,7 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6816,17 +6918,17 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>14</v>
@@ -6840,13 +6942,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -6866,10 +6968,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -6886,13 +6988,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E26" s="4">
         <v>125</v>
@@ -6912,10 +7014,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -6958,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6967,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6981,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -7005,7 +7107,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7023,13 +7125,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7052,13 +7154,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -7077,13 +7179,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7095,7 +7197,7 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7104,13 +7206,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -7122,7 +7224,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7131,13 +7233,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -7156,13 +7258,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4">
         <v>500</v>
@@ -7184,17 +7286,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>14</v>
@@ -7208,13 +7310,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7234,10 +7336,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7254,13 +7356,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -7280,10 +7382,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -7334,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7348,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -7372,7 +7474,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7390,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7419,13 +7521,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
@@ -7444,13 +7546,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -7469,13 +7571,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -7495,17 +7597,17 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
@@ -7519,13 +7621,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -7545,10 +7647,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7565,13 +7667,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7591,10 +7693,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7637,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -7646,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7660,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -7684,7 +7786,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7702,13 +7804,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7731,13 +7833,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
@@ -7756,13 +7858,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7781,13 +7883,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -7799,7 +7901,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7808,13 +7910,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -7826,7 +7928,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
@@ -7835,16 +7937,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -7853,7 +7955,7 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7865,17 +7967,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -7887,13 +7989,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7913,10 +8015,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7933,13 +8035,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -7959,10 +8061,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8004,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -8013,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -8027,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -8051,7 +8153,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -8069,13 +8171,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -8098,13 +8200,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -8116,7 +8218,7 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8125,13 +8227,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E10" s="4">
         <v>50</v>
@@ -8150,13 +8252,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E11" s="4">
         <v>100</v>
@@ -8175,13 +8277,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E12" s="4">
         <v>20</v>
@@ -8200,13 +8302,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4">
         <v>20</v>
@@ -8225,13 +8327,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
@@ -8250,13 +8352,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E15" s="4">
         <v>20</v>
@@ -8275,13 +8377,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E16" s="4">
         <v>20</v>
@@ -8300,13 +8402,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E17" s="4">
         <v>20</v>
@@ -8328,17 +8430,17 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>14</v>
@@ -8352,13 +8454,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -8378,10 +8480,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -8398,13 +8500,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E21" s="4">
         <v>125</v>
@@ -8424,10 +8526,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="667" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="24" r:id="rId1"/>
@@ -378,16 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者氏名</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者部署1</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -803,13 +793,6 @@
   </si>
   <si>
     <t>企業名かな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者かな</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1050,10 +1033,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_first_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>create_user</t>
   </si>
   <si>
@@ -1213,14 +1192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>person_in_charge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_in_charge_kana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>department_in_charge1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1581,10 +1552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_last_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1874,6 +1841,42 @@
   </si>
   <si>
     <t>ビル名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者姓</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者名</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge_last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_first_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person_in_charge_first_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2525,16 +2528,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
@@ -2543,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C2" s="35" t="str">
         <f>企業マスタ!$B$2</f>
@@ -2560,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C3" s="36" t="str">
         <f>従業員マスタ!$B$2</f>
@@ -2577,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C4" s="36" t="str">
         <f>従業員パスワードマスタ!$B$2</f>
@@ -2594,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C5" s="36" t="str">
         <f>評価方式マスタ!$B$2</f>
@@ -2611,7 +2614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C6" s="36" t="str">
         <f>メール設定マスタ!$B$2</f>
@@ -2628,7 +2631,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>質問グループマスタ!$B$2</f>
@@ -2645,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>質問グループサブマスタ!$B$2</f>
@@ -2662,7 +2665,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C9" s="36" t="str">
         <f>質問マスタ!$B$2</f>
@@ -2679,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10" s="36" t="str">
         <f>評価者社内マスタ!$B$2</f>
@@ -2696,7 +2699,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C11" s="42" t="str">
         <f>評価者社外マスタ!$B$2</f>
@@ -2713,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C12" s="35" t="str">
         <f>お知らせデータ!$B$2</f>
@@ -2730,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C13" s="36" t="str">
         <f>メール送信データ!$B$2</f>
@@ -2747,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C14" s="36" t="str">
         <f>評価結果データ!$B$2</f>
@@ -2824,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -2833,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -2871,7 +2874,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -2889,13 +2892,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -2908,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2918,13 +2921,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -2943,13 +2946,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -2968,13 +2971,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -2993,13 +2996,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>13</v>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3020,13 +3023,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -3038,7 +3041,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3047,13 +3050,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -3065,7 +3068,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3077,10 +3080,10 @@
         <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -3102,17 +3105,17 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
@@ -3126,13 +3129,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -3152,10 +3155,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -3172,13 +3175,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -3198,10 +3201,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -3245,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -3254,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -3292,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -3310,13 +3313,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -3329,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3339,13 +3342,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -3370,7 +3373,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -3389,13 +3392,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -3414,13 +3417,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -3439,13 +3442,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="18">
         <v>100</v>
@@ -3464,13 +3467,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E14" s="18">
         <v>100</v>
@@ -3487,13 +3490,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="18">
         <v>50</v>
@@ -3510,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E16" s="17">
         <v>255</v>
@@ -3535,13 +3538,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>13</v>
@@ -3553,7 +3556,7 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3562,13 +3565,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -3580,7 +3583,7 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3589,13 +3592,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -3607,7 +3610,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3619,10 +3622,10 @@
         <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -3644,17 +3647,17 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>14</v>
@@ -3668,13 +3671,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E22" s="4">
         <v>125</v>
@@ -3694,10 +3697,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
@@ -3714,13 +3717,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -3740,10 +3743,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -3822,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -3831,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -3845,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -3869,7 +3872,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -3887,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -3916,13 +3919,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E9" s="4">
         <v>255</v>
@@ -3944,17 +3947,17 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
@@ -3968,13 +3971,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="4">
         <v>125</v>
@@ -3994,10 +3997,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -4014,13 +4017,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -4040,10 +4043,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -4086,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -4095,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -4109,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -4133,7 +4136,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -4151,13 +4154,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4180,13 +4183,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4205,13 +4208,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="4">
         <v>255</v>
@@ -4230,13 +4233,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="4">
         <v>50</v>
@@ -4255,13 +4258,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="4">
         <v>500</v>
@@ -4280,13 +4283,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -4298,7 +4301,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4307,13 +4310,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -4332,13 +4335,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4358,17 +4361,17 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
@@ -4382,13 +4385,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -4408,10 +4411,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -4428,13 +4431,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -4454,10 +4457,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4500,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -4509,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -4547,7 +4550,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -4565,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -4594,13 +4597,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -4622,10 +4625,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -4644,13 +4647,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -4669,13 +4672,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -4687,7 +4690,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.6">
@@ -4696,13 +4699,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>13</v>
@@ -4714,7 +4717,7 @@
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4723,13 +4726,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -4741,7 +4744,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4753,10 +4756,10 @@
         <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -4775,13 +4778,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -4793,7 +4796,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4802,13 +4805,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -4827,13 +4830,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E18" s="4">
         <v>50</v>
@@ -4855,10 +4858,10 @@
         <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="4">
         <v>100</v>
@@ -4877,13 +4880,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -4902,16 +4905,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -4930,17 +4933,17 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>14</v>
@@ -4954,13 +4957,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E23" s="4">
         <v>125</v>
@@ -4980,10 +4983,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
@@ -5000,13 +5003,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E25" s="4">
         <v>125</v>
@@ -5026,10 +5029,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
@@ -5050,9 +5053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5081,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -5119,7 +5120,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -5137,13 +5138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -5166,13 +5167,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E9" s="44">
         <v>25</v>
@@ -5194,10 +5195,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="18">
         <v>50</v>
@@ -5216,13 +5217,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="18">
         <v>50</v>
@@ -5244,10 +5245,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="18">
         <v>20</v>
@@ -5266,13 +5267,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="18">
         <v>125</v>
@@ -5284,7 +5285,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5293,13 +5294,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E14" s="18">
         <v>125</v>
@@ -5311,7 +5312,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5320,13 +5321,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="18">
         <v>125</v>
@@ -5338,7 +5339,7 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5350,10 +5351,10 @@
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E16" s="18">
         <v>20</v>
@@ -5372,16 +5373,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -5397,21 +5398,21 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E18" s="18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
@@ -5422,13 +5423,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="18">
         <v>100</v>
@@ -5447,13 +5448,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E20" s="18">
         <v>100</v>
@@ -5470,13 +5471,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E21" s="18">
         <v>50</v>
@@ -5493,13 +5494,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E22" s="18">
         <v>255</v>
@@ -5521,24 +5522,24 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5547,13 +5548,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -5573,10 +5574,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>36</v>
@@ -5593,13 +5594,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E26" s="4">
         <v>125</v>
@@ -5619,10 +5620,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>36</v>
@@ -5647,8 +5648,8 @@
   </sheetPr>
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5678,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -5692,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -5716,7 +5717,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -5734,13 +5735,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -5766,10 +5767,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E9" s="4">
         <v>50</v>
@@ -5781,7 +5782,7 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -5791,13 +5792,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -5816,13 +5817,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -5841,13 +5842,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -5866,13 +5867,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="4">
         <v>50</v>
@@ -5891,13 +5892,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E14" s="18">
         <v>100</v>
@@ -5916,13 +5917,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="18">
         <v>100</v>
@@ -5939,13 +5940,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E16" s="18">
         <v>50</v>
@@ -5962,16 +5963,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -5987,13 +5988,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E18" s="17">
         <v>255</v>
@@ -6018,7 +6019,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="4">
         <v>30</v>
@@ -6042,17 +6043,17 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>19</v>
@@ -6066,13 +6067,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E21" s="4">
         <v>125</v>
@@ -6092,10 +6093,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>36</v>
@@ -6112,13 +6113,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E23" s="4">
         <v>125</v>
@@ -6138,10 +6139,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>36</v>
@@ -6184,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6193,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6207,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -6231,7 +6232,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -6249,13 +6250,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6276,24 +6277,24 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -6309,7 +6310,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="17">
         <v>250</v>
@@ -6328,13 +6329,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="4">
         <v>125</v>
@@ -6354,10 +6355,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>36</v>
@@ -6374,13 +6375,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -6400,10 +6401,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>36</v>
@@ -6445,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -6454,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -6468,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -6492,7 +6493,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -6510,13 +6511,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -6539,13 +6540,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -6564,13 +6565,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -6582,7 +6583,7 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6591,13 +6592,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -6609,7 +6610,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6618,13 +6619,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6645,13 +6646,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -6663,7 +6664,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6672,13 +6673,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -6690,7 +6691,7 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6699,13 +6700,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
@@ -6717,7 +6718,7 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6726,13 +6727,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -6744,7 +6745,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6753,13 +6754,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>13</v>
@@ -6771,7 +6772,7 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6780,13 +6781,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -6798,7 +6799,7 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6807,13 +6808,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
@@ -6825,7 +6826,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6834,13 +6835,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -6852,7 +6853,7 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6861,13 +6862,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
@@ -6879,7 +6880,7 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6888,13 +6889,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6918,17 +6919,17 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>14</v>
@@ -6942,13 +6943,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E24" s="4">
         <v>125</v>
@@ -6968,10 +6969,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -6988,13 +6989,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E26" s="4">
         <v>125</v>
@@ -7014,10 +7015,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
@@ -7060,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -7069,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7083,7 +7084,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C5" s="14"/>
     </row>
@@ -7107,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7125,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7154,13 +7155,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -7179,13 +7180,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7197,7 +7198,7 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7206,13 +7207,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -7224,7 +7225,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7233,13 +7234,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="4">
         <v>50</v>
@@ -7258,13 +7259,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="4">
         <v>500</v>
@@ -7286,17 +7287,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>14</v>
@@ -7310,13 +7311,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7336,10 +7337,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7356,13 +7357,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -7382,10 +7383,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -7436,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7474,7 +7475,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7495,10 +7496,10 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7521,13 +7522,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
@@ -7546,13 +7547,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
@@ -7571,13 +7572,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -7597,17 +7598,17 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
@@ -7621,13 +7622,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="4">
         <v>125</v>
@@ -7647,10 +7648,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -7667,13 +7668,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -7693,10 +7694,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -7739,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -7748,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -7786,7 +7787,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -7804,13 +7805,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -7833,13 +7834,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
@@ -7861,10 +7862,10 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
@@ -7883,13 +7884,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>13</v>
@@ -7901,7 +7902,7 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7910,13 +7911,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -7928,7 +7929,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
@@ -7937,16 +7938,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -7955,7 +7956,7 @@
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7967,17 +7968,17 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -7989,13 +7990,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="4">
         <v>125</v>
@@ -8015,10 +8016,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -8035,13 +8036,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="4">
         <v>125</v>
@@ -8061,10 +8062,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
@@ -8106,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C2" s="39"/>
     </row>
@@ -8115,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="2"/>
@@ -8153,7 +8154,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -8171,13 +8172,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -8200,13 +8201,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -8218,7 +8219,7 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8227,13 +8228,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E10" s="4">
         <v>50</v>
@@ -8258,7 +8259,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E11" s="4">
         <v>100</v>
@@ -8277,13 +8278,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E12" s="4">
         <v>20</v>
@@ -8302,13 +8303,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E13" s="4">
         <v>20</v>
@@ -8327,13 +8328,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E14" s="4">
         <v>20</v>
@@ -8352,13 +8353,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E15" s="4">
         <v>20</v>
@@ -8377,13 +8378,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E16" s="4">
         <v>20</v>
@@ -8402,13 +8403,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E17" s="4">
         <v>20</v>
@@ -8430,17 +8431,17 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>14</v>
@@ -8454,13 +8455,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E19" s="4">
         <v>125</v>
@@ -8480,10 +8481,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
@@ -8500,13 +8501,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E21" s="4">
         <v>125</v>
@@ -8526,10 +8527,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>

--- a/01_document/DB定義書.xlsx
+++ b/01_document/DB定義書.xlsx
@@ -1884,7 +1884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1942,6 +1942,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2083,7 +2090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2175,6 +2182,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -5053,7 +5063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -5250,8 +5262,8 @@
       <c r="D12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E12" s="18">
-        <v>20</v>
+      <c r="E12" s="47">
+        <v>10</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5276,7 +5288,7 @@
         <v>279</v>
       </c>
       <c r="E13" s="18">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5303,7 +5315,7 @@
         <v>279</v>
       </c>
       <c r="E14" s="18">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -5330,7 +5342,7 @@
         <v>279</v>
       </c>
       <c r="E15" s="18">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -5356,8 +5368,8 @@
       <c r="D16" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="18">
-        <v>20</v>
+      <c r="E16" s="47">
+        <v>15</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
